--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAFAFE-ABC4-4736-A333-CC3C945C67CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB2A57A-5F16-4465-B47E-61C51593563D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="3084" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="12312" yWindow="0" windowWidth="9876" windowHeight="12360" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>State</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>South Australia</t>
+  </si>
+  <si>
+    <t>San Benito, CA</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,75 +1592,89 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
       <c r="C74">
-        <v>37.354100000000003</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D74">
-        <v>-121.9552</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D75">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D76">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
+        <v>33.4255</v>
+      </c>
+      <c r="D77">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
         <v>47.608013</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>34</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>14.058299999999999</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>108.27719999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D78">
-    <sortCondition ref="B3:B78"/>
-    <sortCondition ref="A3:A78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D79">
+    <sortCondition ref="B3:B79"/>
+    <sortCondition ref="A3:A79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB2A57A-5F16-4465-B47E-61C51593563D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4B93B-8B57-418E-8CE8-6C3CD3000566}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12312" yWindow="0" windowWidth="9876" windowHeight="12360" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="8664" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>State</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>San Benito, CA</t>
+  </si>
+  <si>
+    <t>London, ON</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -637,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,949 +741,988 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C7">
-        <v>-14.234999999999999</v>
+        <v>50.503900000000002</v>
       </c>
       <c r="D7">
-        <v>-51.9253</v>
+        <v>4.4699</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>12.5657</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D9">
-        <v>-127.6476</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10">
-        <v>51.253799999999998</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D10">
-        <v>-85.3232</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>31.863889</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D11">
-        <v>117.280833</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>39.928818999999997</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D12">
-        <v>116.388869</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>29.562778000000002</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D13">
-        <v>106.552778</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>26.061388999999998</v>
+        <v>31.863889</v>
       </c>
       <c r="D14">
-        <v>119.306111</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>36.057006000000001</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D15">
-        <v>103.839868</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>23.116667</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D16">
-        <v>113.25</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>22.816666999999999</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D17">
-        <v>108.316667</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>26.583333</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D18">
-        <v>106.716667</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>20.045832999999998</v>
+        <v>23.116667</v>
       </c>
       <c r="D19">
-        <v>110.341667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>38.041389000000002</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D20">
-        <v>114.478611</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>45.75</v>
+        <v>26.583333</v>
       </c>
       <c r="D21">
-        <v>126.65</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>34.683610999999999</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D22">
-        <v>113.5325</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>30.583333</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D23">
-        <v>114.266667</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>28.2</v>
+        <v>45.75</v>
       </c>
       <c r="D24">
-        <v>112.966667</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>40.810555999999998</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D25">
-        <v>111.65222199999999</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>32.061667</v>
+        <v>30.583333</v>
       </c>
       <c r="D26">
-        <v>118.777778</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>28.655757999999999</v>
+        <v>28.2</v>
       </c>
       <c r="D27">
-        <v>115.90504900000001</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>43.88</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D28">
-        <v>125.322778</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>41.792222000000002</v>
+        <v>32.061667</v>
       </c>
       <c r="D29">
-        <v>123.432778</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>38.468055999999997</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D30">
-        <v>106.273056</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>36.625540999999998</v>
+        <v>43.88</v>
       </c>
       <c r="D31">
-        <v>101.75739</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>34.258333</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D32">
-        <v>108.928611</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>36.668332999999997</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D33">
-        <v>116.99722199999999</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>31.222221999999999</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D34">
-        <v>121.458056</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>37.869444000000001</v>
+        <v>34.258333</v>
       </c>
       <c r="D35">
-        <v>112.560278</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>30.666667</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D36">
-        <v>104.066667</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>39.142221999999997</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D37">
-        <v>117.17666699999999</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>29.65</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D38">
-        <v>91.1</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>43.807347</v>
+        <v>30.666667</v>
       </c>
       <c r="D39">
-        <v>87.630505999999997</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>25.038889000000001</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D40">
-        <v>102.718333</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>29.65</v>
+      </c>
+      <c r="D41">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>43.807347</v>
+      </c>
+      <c r="D42">
+        <v>87.630505999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D43">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
         <v>30.29365</v>
       </c>
-      <c r="D41">
+      <c r="D44">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42">
-        <v>4.5709</v>
-      </c>
-      <c r="D42">
-        <v>-74.297300000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43">
-        <v>61.924100000000003</v>
-      </c>
-      <c r="D43">
-        <v>25.748200000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>46.227600000000002</v>
-      </c>
-      <c r="D44">
-        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C45">
-        <v>51.165700000000001</v>
+        <v>4.5709</v>
       </c>
       <c r="D45">
-        <v>10.451499999999999</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C46">
-        <v>48.790399999999998</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D46">
-        <v>11.4979</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>22.302710999999999</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D47">
-        <v>114.177216</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>51.165700000000001</v>
+      </c>
+      <c r="D48">
+        <v>10.451499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <v>48.790399999999998</v>
+      </c>
+      <c r="D49">
+        <v>11.4979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>22.302710999999999</v>
+      </c>
+      <c r="D50">
+        <v>114.177216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
+      <c r="C51">
         <v>20.593699999999998</v>
       </c>
-      <c r="D48">
+      <c r="D51">
         <v>78.962900000000005</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C49">
+      <c r="C52">
         <v>41.871899999999997</v>
       </c>
-      <c r="D49">
+      <c r="D52">
         <v>12.567399999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>64</v>
       </c>
-      <c r="C50">
+      <c r="C53">
         <v>7.54</v>
       </c>
-      <c r="D50">
+      <c r="D53">
         <v>-5.5471000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="C51">
+      <c r="C54">
         <v>35.685000000000002</v>
       </c>
-      <c r="D51">
+      <c r="D54">
         <v>139.75138899999999</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>33</v>
       </c>
-      <c r="C52">
+      <c r="C55">
         <v>22.200559999999999</v>
       </c>
-      <c r="D52">
+      <c r="D55">
         <v>113.54611</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C53">
+      <c r="C56">
         <v>4.2104999999999997</v>
       </c>
-      <c r="D53">
+      <c r="D56">
         <v>101.97580000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="C54">
+      <c r="C57">
         <v>23.634499999999999</v>
       </c>
-      <c r="D54">
+      <c r="D57">
         <v>-102.5528</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>37</v>
       </c>
-      <c r="C55">
+      <c r="C58">
         <v>28.3949</v>
       </c>
-      <c r="D55">
+      <c r="D58">
         <v>84.123999999999995</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="C56">
+      <c r="C59">
         <v>12.8797</v>
       </c>
-      <c r="D56">
+      <c r="D59">
         <v>121.774</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C57">
+      <c r="C60">
         <v>61.524000000000001</v>
       </c>
-      <c r="D57">
+      <c r="D60">
         <v>105.3188</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C58">
+      <c r="C61">
         <v>1.3521000000000001</v>
       </c>
-      <c r="D58">
+      <c r="D61">
         <v>103.8198</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="C59">
+      <c r="C62">
         <v>37.598500000000001</v>
       </c>
-      <c r="D59">
+      <c r="D62">
         <v>126.9783</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C60">
+      <c r="C63">
         <v>40.463700000000003</v>
       </c>
-      <c r="D60">
+      <c r="D63">
         <v>-3.7492000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C61">
+      <c r="C64">
         <v>7.8731</v>
       </c>
-      <c r="D61">
+      <c r="D64">
         <v>80.771799999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62">
-        <v>60.1282</v>
-      </c>
-      <c r="D62">
-        <v>18.6435</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>23.697808999999999</v>
-      </c>
-      <c r="D63">
-        <v>120.96051799999999</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64">
-        <v>13.730579000000001</v>
-      </c>
-      <c r="D64">
-        <v>100.523884</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65">
-        <v>55.378100000000003</v>
+        <v>60.1282</v>
       </c>
       <c r="D65">
-        <v>-3.4359999999999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D66">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D67">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D68">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>47</v>
       </c>
-      <c r="C66">
+      <c r="C69">
         <v>23.424099999999999</v>
       </c>
-      <c r="D66">
+      <c r="D69">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D67">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D68">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D69">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
       </c>
       <c r="C70">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D70">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
       <c r="C71">
-        <v>40.633099999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D71">
-        <v>-89.398499999999999</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72">
-        <v>33.7879</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D72">
-        <v>-117.8531</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73">
-        <v>34.052199999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D73">
-        <v>-118.2437</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
       <c r="C74">
-        <v>36.576099999999997</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D74">
-        <v>-120.9876</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75">
-        <v>37.354100000000003</v>
+        <v>33.7879</v>
       </c>
       <c r="D75">
-        <v>-121.9552</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>47.606200000000001</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D76">
-        <v>-122.3321</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>33.4255</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D77">
-        <v>-111.94</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
+        <v>37.354100000000003</v>
+      </c>
+      <c r="D78">
+        <v>-121.9552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D79">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>33.4255</v>
+      </c>
+      <c r="D80">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
         <v>47.608013</v>
       </c>
-      <c r="D78">
+      <c r="D81">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>34</v>
       </c>
-      <c r="C79">
+      <c r="C82">
         <v>14.058299999999999</v>
       </c>
-      <c r="D79">
+      <c r="D82">
         <v>108.27719999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D79">
-    <sortCondition ref="B3:B79"/>
-    <sortCondition ref="A3:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D82">
+    <sortCondition ref="B3:B82"/>
+    <sortCondition ref="A3:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4B93B-8B57-418E-8CE8-6C3CD3000566}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB47C1E-25BD-4BAE-9569-561A98FE7228}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="3480" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>State</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Belgium</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,89 +1643,103 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>36.576099999999997</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D77">
-        <v>-120.9876</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>37.354100000000003</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D78">
-        <v>-121.9552</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D79">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D80">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
+        <v>33.4255</v>
+      </c>
+      <c r="D81">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82">
         <v>47.608013</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>34</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>14.058299999999999</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>108.27719999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D82">
-    <sortCondition ref="B3:B82"/>
-    <sortCondition ref="A3:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D83">
+    <sortCondition ref="B3:B83"/>
+    <sortCondition ref="A3:A83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB47C1E-25BD-4BAE-9569-561A98FE7228}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF883A1-843D-4E3A-B703-121E5F4B988A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="9720" yWindow="1440" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>State</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Cruise Ship</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -649,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,6 +1742,20 @@
         <v>108.27719999999999</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>35.4437</v>
+      </c>
+      <c r="D84">
+        <v>139.63800000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D83">
     <sortCondition ref="B3:B83"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF883A1-843D-4E3A-B703-121E5F4B988A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE35B77-9A43-459D-864F-DD74F49B1D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1440" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
     <t>Madison, WI</t>
   </si>
   <si>
-    <t>Cruise Ship</t>
-  </si>
-  <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Diamond Princess cruise ship</t>
   </si>
 </sst>
 </file>
@@ -657,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
         <v>89</v>
-      </c>
-      <c r="B84" t="s">
-        <v>90</v>
       </c>
       <c r="C84">
         <v>35.4437</v>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE35B77-9A43-459D-864F-DD74F49B1D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15938260-5BD4-41CE-B2FB-1692F5C4D768}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>State</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Diamond Princess cruise ship</t>
+  </si>
+  <si>
+    <t>San Diego County, CA</t>
   </si>
 </sst>
 </file>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R86" sqref="R86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,89 +1680,103 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>37.354100000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D79">
-        <v>-121.9552</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D80">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D81">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
+        <v>33.4255</v>
+      </c>
+      <c r="D82">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
         <v>47.608013</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>34</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>14.058299999999999</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>108.27719999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>89</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>35.4437</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D83">
-    <sortCondition ref="B3:B83"/>
-    <sortCondition ref="A3:A83"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D84">
+    <sortCondition ref="B3:B84"/>
+    <sortCondition ref="A3:A84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15938260-5BD4-41CE-B2FB-1692F5C4D768}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59694BE3-644B-4B7D-8B36-E67763F22645}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>State</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>San Diego County, CA</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1666,117 +1669,131 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>36.576099999999997</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D78">
-        <v>-120.9876</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>32.715699999999998</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D79">
-        <v>-117.1611</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>37.354100000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D80">
-        <v>-121.9552</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D81">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D82">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
+        <v>33.4255</v>
+      </c>
+      <c r="D83">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
         <v>47.608013</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>34</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>14.058299999999999</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>108.27719999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>89</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>35.4437</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D84">
-    <sortCondition ref="B3:B84"/>
-    <sortCondition ref="A3:A84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D85">
+    <sortCondition ref="B3:B85"/>
+    <sortCondition ref="A3:A85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59694BE3-644B-4B7D-8B36-E67763F22645}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6097860-EC85-4919-B672-1A35B746101E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
   <si>
     <t>State</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>Egypt</t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,510 +1293,521 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C46">
-        <v>61.924100000000003</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D46">
-        <v>25.748200000000001</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C47">
-        <v>46.227600000000002</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D47">
-        <v>2.2136999999999998</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>51.165700000000001</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D48">
-        <v>10.451499999999999</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
       <c r="B49" t="s">
         <v>70</v>
       </c>
       <c r="C49">
+        <v>51.165700000000001</v>
+      </c>
+      <c r="D49">
+        <v>10.451499999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50">
         <v>48.790399999999998</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>11.4979</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50">
-        <v>22.302710999999999</v>
-      </c>
-      <c r="D50">
-        <v>114.177216</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>20.593699999999998</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D51">
-        <v>78.962900000000005</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C52">
-        <v>41.871899999999997</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D52">
-        <v>12.567399999999999</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C53">
-        <v>7.54</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D53">
-        <v>-5.5471000000000004</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C54">
-        <v>35.685000000000002</v>
+        <v>7.54</v>
       </c>
       <c r="D54">
-        <v>139.75138899999999</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C55">
-        <v>22.200559999999999</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D55">
-        <v>113.54611</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>4.2104999999999997</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D56">
-        <v>101.97580000000001</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>23.634499999999999</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D57">
-        <v>-102.5528</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>28.3949</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D58">
-        <v>84.123999999999995</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C59">
-        <v>12.8797</v>
+        <v>28.3949</v>
       </c>
       <c r="D59">
-        <v>121.774</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C60">
-        <v>61.524000000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D60">
-        <v>105.3188</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>1.3521000000000001</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D61">
-        <v>103.8198</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>37.598500000000001</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D62">
-        <v>126.9783</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>40.463700000000003</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D63">
-        <v>-3.7492000000000001</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C64">
-        <v>7.8731</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D64">
-        <v>80.771799999999999</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>60.1282</v>
+        <v>7.8731</v>
       </c>
       <c r="D65">
-        <v>18.6435</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C66">
-        <v>23.697808999999999</v>
+        <v>60.1282</v>
       </c>
       <c r="D66">
-        <v>120.96051799999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>13.730579000000001</v>
+        <v>23.697808999999999</v>
       </c>
       <c r="D67">
-        <v>100.523884</v>
+        <v>120.96051799999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C68">
-        <v>55.378100000000003</v>
+        <v>13.730579000000001</v>
       </c>
       <c r="D68">
-        <v>-3.4359999999999999</v>
+        <v>100.523884</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D69">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>47</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>23.424099999999999</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D70">
-        <v>-111.093735</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
       <c r="C71">
-        <v>42.360100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D71">
-        <v>-71.058899999999994</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72">
-        <v>36.778300000000002</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D72">
-        <v>-119.4179</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73">
-        <v>41.878100000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D73">
-        <v>-87.629800000000003</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
       <c r="C74">
-        <v>40.633099999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D74">
-        <v>-89.398499999999999</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75">
-        <v>33.7879</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D75">
-        <v>-117.8531</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>34.052199999999999</v>
+        <v>33.7879</v>
       </c>
       <c r="D76">
-        <v>-118.2437</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>43.073099999999997</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D77">
-        <v>-89.401200000000003</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>29.424099999999999</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D78">
-        <v>-98.493600000000001</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>36.576099999999997</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D79">
-        <v>-120.9876</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>32.715699999999998</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D80">
-        <v>-117.1611</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>37.354100000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D81">
-        <v>-121.9552</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D82">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D83">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
+        <v>33.4255</v>
+      </c>
+      <c r="D84">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
         <v>47.608013</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>34</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>14.058299999999999</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>108.27719999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>35.4437</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D85">
-    <sortCondition ref="B3:B85"/>
-    <sortCondition ref="A3:A85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D86">
+    <sortCondition ref="B3:B86"/>
+    <sortCondition ref="A3:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6097860-EC85-4919-B672-1A35B746101E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A755E4-3BA0-45D1-89DA-72FC5870201B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="8676" yWindow="1728" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>State</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Egypt</t>
+  </si>
+  <si>
+    <t>Omaha, NE</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,173 +1644,187 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>33.7879</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D76">
-        <v>-117.8531</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>34.052199999999999</v>
+        <v>33.7879</v>
       </c>
       <c r="D77">
-        <v>-118.2437</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>43.073099999999997</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D78">
-        <v>-89.401200000000003</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>29.424099999999999</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D79">
-        <v>-98.493600000000001</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>36.576099999999997</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D80">
-        <v>-120.9876</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>32.715699999999998</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D81">
-        <v>-117.1611</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>37.354100000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D82">
-        <v>-121.9552</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D83">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D84">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
+        <v>33.4255</v>
+      </c>
+      <c r="D85">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86">
         <v>47.608013</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>34</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>14.058299999999999</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>108.27719999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>35.4437</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D86">
-    <sortCondition ref="B3:B86"/>
-    <sortCondition ref="A3:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D87">
+    <sortCondition ref="B3:B87"/>
+    <sortCondition ref="A3:A87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A755E4-3BA0-45D1-89DA-72FC5870201B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45395BBD-2339-461C-850E-625EF3C27E79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="1728" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="7920" yWindow="2556" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>State</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Omaha, NE</t>
+  </si>
+  <si>
+    <t>Iran</t>
   </si>
 </sst>
 </file>
@@ -667,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,455 +1379,466 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C53">
-        <v>41.871899999999997</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D53">
-        <v>12.567399999999999</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C54">
-        <v>7.54</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D54">
-        <v>-5.5471000000000004</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C55">
-        <v>35.685000000000002</v>
+        <v>7.54</v>
       </c>
       <c r="D55">
-        <v>139.75138899999999</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C56">
-        <v>22.200559999999999</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D56">
-        <v>113.54611</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>4.2104999999999997</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D57">
-        <v>101.97580000000001</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>23.634499999999999</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D58">
-        <v>-102.5528</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C59">
-        <v>28.3949</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D59">
-        <v>84.123999999999995</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <v>12.8797</v>
+        <v>28.3949</v>
       </c>
       <c r="D60">
-        <v>121.774</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C61">
-        <v>61.524000000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D61">
-        <v>105.3188</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C62">
-        <v>1.3521000000000001</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D62">
-        <v>103.8198</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>37.598500000000001</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D63">
-        <v>126.9783</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>40.463700000000003</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D64">
-        <v>-3.7492000000000001</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C65">
-        <v>7.8731</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D65">
-        <v>80.771799999999999</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>60.1282</v>
+        <v>7.8731</v>
       </c>
       <c r="D66">
-        <v>18.6435</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C67">
-        <v>23.697808999999999</v>
+        <v>60.1282</v>
       </c>
       <c r="D67">
-        <v>120.96051799999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>13.730579000000001</v>
+        <v>23.697808999999999</v>
       </c>
       <c r="D68">
-        <v>100.523884</v>
+        <v>120.96051799999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C69">
-        <v>55.378100000000003</v>
+        <v>13.730579000000001</v>
       </c>
       <c r="D69">
-        <v>-3.4359999999999999</v>
+        <v>100.523884</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D70">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>47</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>23.424099999999999</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D71">
-        <v>-111.093735</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72">
-        <v>42.360100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D72">
-        <v>-71.058899999999994</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73">
-        <v>36.778300000000002</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D73">
-        <v>-119.4179</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
       <c r="C74">
-        <v>41.878100000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D74">
-        <v>-87.629800000000003</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75">
-        <v>40.633099999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D75">
-        <v>-89.398499999999999</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>41.256500000000003</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D76">
-        <v>-95.9345</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>33.7879</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D77">
-        <v>-117.8531</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>34.052199999999999</v>
+        <v>33.7879</v>
       </c>
       <c r="D78">
-        <v>-118.2437</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>43.073099999999997</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D79">
-        <v>-89.401200000000003</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>29.424099999999999</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D80">
-        <v>-98.493600000000001</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>36.576099999999997</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D81">
-        <v>-120.9876</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>32.715699999999998</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D82">
-        <v>-117.1611</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
-        <v>37.354100000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D83">
-        <v>-121.9552</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D84">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D85">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86">
+        <v>33.4255</v>
+      </c>
+      <c r="D86">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87">
         <v>47.608013</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>34</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>14.058299999999999</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>108.27719999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>35.4437</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D87">
-    <sortCondition ref="B3:B87"/>
-    <sortCondition ref="A3:A87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D88">
+    <sortCondition ref="B3:B88"/>
+    <sortCondition ref="A3:A88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45395BBD-2339-461C-850E-625EF3C27E79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146C952-D9BD-4082-827F-12A9F0176B90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2556" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="588" yWindow="612" windowWidth="12360" windowHeight="10512" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>State</t>
   </si>
@@ -319,6 +319,30 @@
   </si>
   <si>
     <t>Iran</t>
+  </si>
+  <si>
+    <t>Lackland, TX</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Sacramento County, CA</t>
+  </si>
+  <si>
+    <t>Ashland, NE</t>
+  </si>
+  <si>
+    <t>From Diamond Princess</t>
+  </si>
+  <si>
+    <t>Humboldt County, CA</t>
+  </si>
+  <si>
+    <t>Travis, CA</t>
+  </si>
+  <si>
+    <t>Israel</t>
   </si>
 </sst>
 </file>
@@ -670,16 +694,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.21875" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -753,6 +778,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -765,1080 +793,1186 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>50.503900000000002</v>
+        <v>-25.2744</v>
       </c>
       <c r="D7">
-        <v>4.4699</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C8">
-        <v>-14.234999999999999</v>
+        <v>50.503900000000002</v>
       </c>
       <c r="D8">
-        <v>-51.9253</v>
+        <v>4.4699</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>12.5657</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D10">
-        <v>-127.6476</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11">
-        <v>51.253799999999998</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D11">
-        <v>-85.3232</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12">
-        <v>42.984900000000003</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D12">
-        <v>-81.2453</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13">
-        <v>43.653199999999998</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D13">
-        <v>-79.383200000000002</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>31.863889</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D14">
-        <v>117.280833</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>39.928818999999997</v>
+        <v>31.863889</v>
       </c>
       <c r="D15">
-        <v>116.388869</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>29.562778000000002</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D16">
-        <v>106.552778</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>26.061388999999998</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D17">
-        <v>119.306111</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>36.057006000000001</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D18">
-        <v>103.839868</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>23.116667</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D19">
-        <v>113.25</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>22.816666999999999</v>
+        <v>23.116667</v>
       </c>
       <c r="D20">
-        <v>108.316667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>26.583333</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D21">
-        <v>106.716667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>20.045832999999998</v>
+        <v>26.583333</v>
       </c>
       <c r="D22">
-        <v>110.341667</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>38.041389000000002</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D23">
-        <v>114.478611</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>45.75</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D24">
-        <v>126.65</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>34.683610999999999</v>
+        <v>45.75</v>
       </c>
       <c r="D25">
-        <v>113.5325</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>30.583333</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D26">
-        <v>114.266667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>28.2</v>
+        <v>30.583333</v>
       </c>
       <c r="D27">
-        <v>112.966667</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>40.810555999999998</v>
+        <v>28.2</v>
       </c>
       <c r="D28">
-        <v>111.65222199999999</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>32.061667</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D29">
-        <v>118.777778</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>28.655757999999999</v>
+        <v>32.061667</v>
       </c>
       <c r="D30">
-        <v>115.90504900000001</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>43.88</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D31">
-        <v>125.322778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>41.792222000000002</v>
+        <v>43.88</v>
       </c>
       <c r="D32">
-        <v>123.432778</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>38.468055999999997</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D33">
-        <v>106.273056</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>36.625540999999998</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D34">
-        <v>101.75739</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>34.258333</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D35">
-        <v>108.928611</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>36.668332999999997</v>
+        <v>34.258333</v>
       </c>
       <c r="D36">
-        <v>116.99722199999999</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>31.222221999999999</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D37">
-        <v>121.458056</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>37.869444000000001</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D38">
-        <v>112.560278</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>30.666667</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D39">
-        <v>104.066667</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>39.142221999999997</v>
+        <v>30.666667</v>
       </c>
       <c r="D40">
-        <v>117.17666699999999</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>29.65</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D41">
-        <v>91.1</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>43.807347</v>
+        <v>29.65</v>
       </c>
       <c r="D42">
-        <v>87.630505999999997</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>25.038889000000001</v>
+        <v>43.807347</v>
       </c>
       <c r="D43">
-        <v>102.718333</v>
+        <v>87.630505999999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D44">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>17</v>
       </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>30.29365</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>4.5709</v>
-      </c>
-      <c r="D45">
-        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C46">
-        <v>26.820599999999999</v>
+        <v>4.5709</v>
       </c>
       <c r="D46">
-        <v>30.802499999999998</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C47">
-        <v>61.924100000000003</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D47">
-        <v>25.748200000000001</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>46.227600000000002</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D48">
-        <v>2.2136999999999998</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C49">
-        <v>51.165700000000001</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D49">
-        <v>10.451499999999999</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
       <c r="B50" t="s">
         <v>70</v>
       </c>
       <c r="C50">
+        <v>51.165700000000001</v>
+      </c>
+      <c r="D50">
+        <v>10.451499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51">
         <v>48.790399999999998</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>11.4979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>22.302710999999999</v>
-      </c>
-      <c r="D51">
-        <v>114.177216</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>20.593699999999998</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D52">
-        <v>78.962900000000005</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C53">
-        <v>32.427900000000001</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D53">
-        <v>53.688000000000002</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C54">
-        <v>41.871899999999997</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D54">
-        <v>12.567399999999999</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C55">
-        <v>7.54</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D55">
-        <v>-5.5471000000000004</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C56">
-        <v>35.685000000000002</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D56">
-        <v>139.75138899999999</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C57">
-        <v>22.200559999999999</v>
+        <v>7.54</v>
       </c>
       <c r="D57">
-        <v>113.54611</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>4.2104999999999997</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D58">
-        <v>101.97580000000001</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C59">
-        <v>23.634499999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D59">
-        <v>-102.5528</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C60">
-        <v>28.3949</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D60">
-        <v>84.123999999999995</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C61">
-        <v>12.8797</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D61">
-        <v>121.774</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>61.524000000000001</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D62">
-        <v>105.3188</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C63">
-        <v>1.3521000000000001</v>
+        <v>28.3949</v>
       </c>
       <c r="D63">
-        <v>103.8198</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C64">
-        <v>37.598500000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D64">
-        <v>126.9783</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C65">
-        <v>40.463700000000003</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D65">
-        <v>-3.7492000000000001</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>7.8731</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D66">
-        <v>80.771799999999999</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C67">
-        <v>60.1282</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D67">
-        <v>18.6435</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C68">
-        <v>23.697808999999999</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D68">
-        <v>120.96051799999999</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>13.730579000000001</v>
+        <v>7.8731</v>
       </c>
       <c r="D69">
-        <v>100.523884</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70">
-        <v>55.378100000000003</v>
+        <v>60.1282</v>
       </c>
       <c r="D70">
-        <v>-3.4359999999999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D71">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D72">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D73">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>47</v>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>23.424099999999999</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D72">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D73">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D74">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D75">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>40.633099999999999</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D76">
-        <v>-89.398499999999999</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>41.256500000000003</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D77">
-        <v>-95.9345</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>33.7879</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D78">
-        <v>-117.8531</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>34.052199999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D79">
-        <v>-118.2437</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>43.073099999999997</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D80">
-        <v>-89.401200000000003</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>29.424099999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D81">
-        <v>-98.493600000000001</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>36.576099999999997</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D82">
-        <v>-120.9876</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
-        <v>32.715699999999998</v>
+        <v>33.7879</v>
       </c>
       <c r="D83">
-        <v>-117.1611</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>37.354100000000003</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D84">
-        <v>-121.9552</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
-        <v>47.606200000000001</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D85">
-        <v>-122.3321</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86">
-        <v>33.4255</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D86">
-        <v>-111.94</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87">
-        <v>47.608013</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D87">
-        <v>-122.335167</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C88">
-        <v>14.058299999999999</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D88">
-        <v>108.27719999999999</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>36.576099999999997</v>
+      </c>
+      <c r="D89">
+        <v>-120.9876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>32.715699999999998</v>
+      </c>
+      <c r="D90">
+        <v>-117.1611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>37.354100000000003</v>
+      </c>
+      <c r="D91">
+        <v>-121.9552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D92">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>33.4255</v>
+      </c>
+      <c r="D93">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D94">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>47.608013</v>
+      </c>
+      <c r="D95">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D96">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B97" t="s">
         <v>89</v>
       </c>
-      <c r="C89">
+      <c r="C97">
         <v>35.4437</v>
       </c>
-      <c r="D89">
+      <c r="D97">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D88">
-    <sortCondition ref="B3:B88"/>
-    <sortCondition ref="A3:A88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D96">
+    <sortCondition ref="B3:B96"/>
+    <sortCondition ref="A3:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146C952-D9BD-4082-827F-12A9F0176B90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2206-BD58-4C69-B9D7-E1D5B4C429C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="612" windowWidth="12360" windowHeight="10512" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>State</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>Israel</t>
+  </si>
+  <si>
+    <t>Travis, CA (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Omaha, NE (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Lackland, TX (From Diamond Princess)</t>
   </si>
 </sst>
 </file>
@@ -694,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,215 +1773,257 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
-        <v>33.7879</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D83">
-        <v>-117.8531</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>34.052199999999999</v>
+        <v>33.7879</v>
       </c>
       <c r="D84">
-        <v>-118.2437</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
-        <v>29.387799999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D85">
-        <v>-98.620500000000007</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86">
-        <v>43.073099999999997</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D86">
-        <v>-89.401200000000003</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87">
-        <v>38.474699999999999</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D87">
-        <v>-121.35420000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
       </c>
       <c r="C88">
-        <v>29.424099999999999</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D88">
-        <v>-98.493600000000001</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="C89">
-        <v>36.576099999999997</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D89">
-        <v>-120.9876</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
       </c>
       <c r="C90">
-        <v>32.715699999999998</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D90">
-        <v>-117.1611</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91">
-        <v>37.354100000000003</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D91">
-        <v>-121.9552</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
       <c r="C92">
-        <v>47.606200000000001</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D92">
-        <v>-122.3321</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
       <c r="C93">
-        <v>33.4255</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D93">
-        <v>-111.94</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
       </c>
       <c r="C94">
-        <v>38.272100000000002</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D94">
-        <v>-121.93989999999999</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="C95">
-        <v>47.608013</v>
+        <v>33.4255</v>
       </c>
       <c r="D95">
-        <v>-122.335167</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C96">
-        <v>14.058299999999999</v>
+        <v>38.272100000000002</v>
       </c>
       <c r="D96">
-        <v>108.27719999999999</v>
+        <v>-121.93989999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D97">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>47.608013</v>
+      </c>
+      <c r="D98">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D99">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>90</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>89</v>
       </c>
-      <c r="C97">
+      <c r="C100">
         <v>35.4437</v>
       </c>
-      <c r="D97">
+      <c r="D100">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D96">
-    <sortCondition ref="B3:B96"/>
-    <sortCondition ref="A3:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D99">
+    <sortCondition ref="B3:B99"/>
+    <sortCondition ref="A3:A99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2206-BD58-4C69-B9D7-E1D5B4C429C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B27FCF-9AFA-4DDF-8F0C-E1F7F214C2F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="9180" yWindow="1524" windowWidth="12360" windowHeight="10512" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t>State</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Lackland, TX (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
   </si>
 </sst>
 </file>
@@ -703,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:D87"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,343 +1440,340 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>33.223199999999999</v>
+      </c>
+      <c r="D55">
+        <v>43.679299999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>100</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>31.046099999999999</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>34.851599999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56">
-        <v>41.871899999999997</v>
-      </c>
-      <c r="D56">
-        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C57">
-        <v>7.54</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D57">
-        <v>-5.5471000000000004</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C58">
-        <v>35.685000000000002</v>
+        <v>7.54</v>
       </c>
       <c r="D58">
-        <v>139.75138899999999</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>33.854700000000001</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D59">
-        <v>35.862299999999998</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C60">
-        <v>22.200559999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D60">
-        <v>113.54611</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C61">
-        <v>4.2104999999999997</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D61">
-        <v>101.97580000000001</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C62">
-        <v>23.634499999999999</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D62">
-        <v>-102.5528</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>28.3949</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D63">
-        <v>84.123999999999995</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C64">
-        <v>12.8797</v>
+        <v>28.3949</v>
       </c>
       <c r="D64">
-        <v>121.774</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C65">
-        <v>61.524000000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D65">
-        <v>105.3188</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C66">
-        <v>1.3521000000000001</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D66">
-        <v>103.8198</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>37.598500000000001</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D67">
-        <v>126.9783</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>40.463700000000003</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D68">
-        <v>-3.7492000000000001</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C69">
-        <v>7.8731</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D69">
-        <v>80.771799999999999</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>60.1282</v>
+        <v>7.8731</v>
       </c>
       <c r="D70">
-        <v>18.6435</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C71">
-        <v>23.697808999999999</v>
+        <v>60.1282</v>
       </c>
       <c r="D71">
-        <v>120.96051799999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>13.730579000000001</v>
+        <v>23.697808999999999</v>
       </c>
       <c r="D72">
-        <v>100.523884</v>
+        <v>120.96051799999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C73">
-        <v>55.378100000000003</v>
+        <v>13.730579000000001</v>
       </c>
       <c r="D73">
-        <v>-3.4359999999999999</v>
+        <v>100.523884</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D74">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>23.424099999999999</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D75">
-        <v>-111.093735</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76">
-        <v>41.039299999999997</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D76">
-        <v>-96.368300000000005</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77">
-        <v>42.360100000000003</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D77">
-        <v>-71.058899999999994</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78">
-        <v>36.778300000000002</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D78">
-        <v>-119.4179</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79">
-        <v>41.878100000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D79">
-        <v>-87.629800000000003</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>40.744999999999997</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D80">
-        <v>-123.8695</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>40.633099999999999</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D81">
-        <v>-89.398499999999999</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>41.256500000000003</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D82">
-        <v>-95.9345</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
@@ -1787,49 +1787,49 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>33.7879</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D84">
-        <v>-117.8531</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
-        <v>34.052199999999999</v>
+        <v>33.7879</v>
       </c>
       <c r="D85">
-        <v>-118.2437</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86">
-        <v>29.387799999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D86">
-        <v>-98.620500000000007</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
@@ -1843,133 +1843,133 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
       </c>
       <c r="C88">
-        <v>43.073099999999997</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D88">
-        <v>-89.401200000000003</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="C89">
-        <v>38.474699999999999</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D89">
-        <v>-121.35420000000001</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
       </c>
       <c r="C90">
-        <v>29.424099999999999</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D90">
-        <v>-98.493600000000001</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91">
-        <v>36.576099999999997</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D91">
-        <v>-120.9876</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
       <c r="C92">
-        <v>32.715699999999998</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D92">
-        <v>-117.1611</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
       <c r="C93">
-        <v>37.354100000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D93">
-        <v>-121.9552</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
       </c>
       <c r="C94">
-        <v>47.606200000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D94">
-        <v>-122.3321</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="C95">
-        <v>33.4255</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D95">
-        <v>-111.94</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
         <v>30</v>
       </c>
       <c r="C96">
-        <v>38.272100000000002</v>
+        <v>33.4255</v>
       </c>
       <c r="D96">
-        <v>-121.93989999999999</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
@@ -1983,47 +1983,61 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D98">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>29</v>
       </c>
-      <c r="B98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98">
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99">
         <v>47.608013</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>34</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>14.058299999999999</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>108.27719999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>90</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>89</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>35.4437</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D99">
-    <sortCondition ref="B3:B99"/>
-    <sortCondition ref="A3:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D100">
+    <sortCondition ref="B3:B100"/>
+    <sortCondition ref="A3:A100"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B27FCF-9AFA-4DDF-8F0C-E1F7F214C2F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4502A-A890-497C-8445-2F5A196006D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1524" windowWidth="12360" windowHeight="10512" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="9132" yWindow="888" windowWidth="12516" windowHeight="12228" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>State</t>
   </si>
@@ -355,6 +355,21 @@
   </si>
   <si>
     <t>Iraq</t>
+  </si>
+  <si>
+    <t>Unassigned Location (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
   </si>
 </sst>
 </file>
@@ -706,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,76 +749,76 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>-30.0002</v>
+        <v>33.939100000000003</v>
       </c>
       <c r="D2">
-        <v>136.20920000000001</v>
+        <v>67.709999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-31.2532</v>
+        <v>-30.0002</v>
       </c>
       <c r="D3">
-        <v>146.9211</v>
+        <v>136.20920000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>-20.9176</v>
+        <v>-31.2532</v>
       </c>
       <c r="D4">
-        <v>142.7028</v>
+        <v>146.9211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5">
-        <v>-37.471299999999999</v>
+        <v>-20.9176</v>
       </c>
       <c r="D5">
-        <v>144.7852</v>
+        <v>142.7028</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-25.2744</v>
+        <v>-37.471299999999999</v>
       </c>
       <c r="D6">
-        <v>133.77510000000001</v>
+        <v>144.7852</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -816,1228 +831,1286 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>50.503900000000002</v>
+        <v>-25.2744</v>
       </c>
       <c r="D8">
-        <v>4.4699</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C9">
-        <v>-14.234999999999999</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D9">
-        <v>-51.9253</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>50.503900000000002</v>
+      </c>
+      <c r="D10">
+        <v>4.4699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D11">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>12.5657</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D11">
-        <v>-127.6476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <v>51.253799999999998</v>
-      </c>
-      <c r="D12">
-        <v>-85.3232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13">
-        <v>42.984900000000003</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D13">
-        <v>-81.2453</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14">
-        <v>43.653199999999998</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D14">
-        <v>-79.383200000000002</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>31.863889</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D15">
-        <v>117.280833</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>39.928818999999997</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D16">
-        <v>116.388869</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>29.562778000000002</v>
+        <v>31.863889</v>
       </c>
       <c r="D17">
-        <v>106.552778</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>26.061388999999998</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D18">
-        <v>119.306111</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>36.057006000000001</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D19">
-        <v>103.839868</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>23.116667</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D20">
-        <v>113.25</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>22.816666999999999</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D21">
-        <v>108.316667</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>26.583333</v>
+        <v>23.116667</v>
       </c>
       <c r="D22">
-        <v>106.716667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>20.045832999999998</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D23">
-        <v>110.341667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>38.041389000000002</v>
+        <v>26.583333</v>
       </c>
       <c r="D24">
-        <v>114.478611</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>45.75</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D25">
-        <v>126.65</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>34.683610999999999</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D26">
-        <v>113.5325</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>30.583333</v>
+        <v>45.75</v>
       </c>
       <c r="D27">
-        <v>114.266667</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>28.2</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D28">
-        <v>112.966667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>40.810555999999998</v>
+        <v>30.583333</v>
       </c>
       <c r="D29">
-        <v>111.65222199999999</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>32.061667</v>
+        <v>28.2</v>
       </c>
       <c r="D30">
-        <v>118.777778</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>28.655757999999999</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D31">
-        <v>115.90504900000001</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>43.88</v>
+        <v>32.061667</v>
       </c>
       <c r="D32">
-        <v>125.322778</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>41.792222000000002</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D33">
-        <v>123.432778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>38.468055999999997</v>
+        <v>43.88</v>
       </c>
       <c r="D34">
-        <v>106.273056</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>36.625540999999998</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D35">
-        <v>101.75739</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>34.258333</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D36">
-        <v>108.928611</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>36.668332999999997</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D37">
-        <v>116.99722199999999</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>31.222221999999999</v>
+        <v>34.258333</v>
       </c>
       <c r="D38">
-        <v>121.458056</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>37.869444000000001</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D39">
-        <v>112.560278</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>30.666667</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D40">
-        <v>104.066667</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>39.142221999999997</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D41">
-        <v>117.17666699999999</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>29.65</v>
+        <v>30.666667</v>
       </c>
       <c r="D42">
-        <v>91.1</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>43.807347</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D43">
-        <v>87.630505999999997</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>25.038889000000001</v>
+        <v>29.65</v>
       </c>
       <c r="D44">
-        <v>102.718333</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>43.807347</v>
+      </c>
+      <c r="D45">
+        <v>87.630505999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D46">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
         <v>30.29365</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>4.5709</v>
-      </c>
-      <c r="D46">
-        <v>-74.297300000000007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47">
-        <v>26.820599999999999</v>
-      </c>
-      <c r="D47">
-        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>61.924100000000003</v>
+        <v>4.5709</v>
       </c>
       <c r="D48">
-        <v>25.748200000000001</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C49">
-        <v>46.227600000000002</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D49">
-        <v>2.2136999999999998</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50">
-        <v>51.165700000000001</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D50">
-        <v>10.451499999999999</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>48.790399999999998</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D51">
-        <v>11.4979</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C52">
-        <v>22.302710999999999</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D52">
-        <v>114.177216</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C53">
-        <v>20.593699999999998</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D53">
-        <v>78.962900000000005</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C54">
-        <v>32.427900000000001</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D54">
-        <v>53.688000000000002</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C55">
-        <v>33.223199999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D55">
-        <v>43.679299999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>100</v>
-      </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C56">
-        <v>31.046099999999999</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D56">
-        <v>34.851599999999998</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C57">
-        <v>41.871899999999997</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D57">
-        <v>12.567399999999999</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C58">
-        <v>7.54</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D58">
-        <v>-5.5471000000000004</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C59">
-        <v>35.685000000000002</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D59">
-        <v>139.75138899999999</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>33.854700000000001</v>
+        <v>7.54</v>
       </c>
       <c r="D60">
-        <v>35.862299999999998</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C61">
-        <v>22.200559999999999</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D61">
-        <v>113.54611</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C62">
-        <v>4.2104999999999997</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D62">
-        <v>101.97580000000001</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C63">
-        <v>23.634499999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D63">
-        <v>-102.5528</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C64">
-        <v>28.3949</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D64">
-        <v>84.123999999999995</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>12.8797</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D65">
-        <v>121.774</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>61.524000000000001</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D66">
-        <v>105.3188</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>1.3521000000000001</v>
+        <v>28.3949</v>
       </c>
       <c r="D67">
-        <v>103.8198</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C68">
-        <v>37.598500000000001</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="D68">
-        <v>126.9783</v>
+        <v>55.9754</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C69">
-        <v>40.463700000000003</v>
+        <v>12.8797</v>
       </c>
       <c r="D69">
-        <v>-3.7492000000000001</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C70">
-        <v>7.8731</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D70">
-        <v>80.771799999999999</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>60.1282</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D71">
-        <v>18.6435</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C72">
-        <v>23.697808999999999</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D72">
-        <v>120.96051799999999</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>13.730579000000001</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D73">
-        <v>100.523884</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>55.378100000000003</v>
+        <v>7.8731</v>
       </c>
       <c r="D74">
-        <v>-3.4359999999999999</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>60.1282</v>
+      </c>
+      <c r="D75">
+        <v>18.6435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D76">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D77">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D78">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>47</v>
       </c>
-      <c r="C75">
+      <c r="C79">
         <v>23.424099999999999</v>
       </c>
-      <c r="D75">
+      <c r="D79">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D76">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D77">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D78">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D79">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D80">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>40.744999999999997</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D81">
-        <v>-123.8695</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>40.633099999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D82">
-        <v>-89.398499999999999</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83">
-        <v>41.256500000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D83">
-        <v>-95.9345</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>41.256500000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D84">
-        <v>-95.9345</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
-        <v>33.7879</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D85">
-        <v>-117.8531</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86">
-        <v>34.052199999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D86">
-        <v>-118.2437</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D87">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
       </c>
       <c r="C88">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D88">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="C89">
-        <v>43.073099999999997</v>
+        <v>33.7879</v>
       </c>
       <c r="D89">
-        <v>-89.401200000000003</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
       </c>
       <c r="C90">
-        <v>38.474699999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D90">
-        <v>-121.35420000000001</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91">
-        <v>29.424099999999999</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D91">
-        <v>-98.493600000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
       <c r="C92">
-        <v>36.576099999999997</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D92">
-        <v>-120.9876</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
       <c r="C93">
-        <v>32.715699999999998</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D93">
-        <v>-117.1611</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
       </c>
       <c r="C94">
-        <v>37.354100000000003</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D94">
-        <v>-121.9552</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="C95">
-        <v>47.606200000000001</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D95">
-        <v>-122.3321</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
         <v>30</v>
       </c>
       <c r="C96">
-        <v>33.4255</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D96">
-        <v>-111.94</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
       </c>
       <c r="C97">
-        <v>38.272100000000002</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D97">
-        <v>-121.93989999999999</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
       </c>
       <c r="C98">
-        <v>38.272100000000002</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D98">
-        <v>-121.93989999999999</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
       </c>
       <c r="C99">
-        <v>47.608013</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D99">
-        <v>-122.335167</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>14.058299999999999</v>
+        <v>33.4255</v>
       </c>
       <c r="D100">
-        <v>108.27719999999999</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D101">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D102">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>47.608013</v>
+      </c>
+      <c r="D103">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D104">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D105">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>90</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B106" t="s">
         <v>89</v>
       </c>
-      <c r="C101">
+      <c r="C106">
         <v>35.4437</v>
       </c>
-      <c r="D101">
+      <c r="D106">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D100">
-    <sortCondition ref="B3:B100"/>
-    <sortCondition ref="A3:A100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D105">
+    <sortCondition ref="B4:B105"/>
+    <sortCondition ref="A4:A105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4502A-A890-497C-8445-2F5A196006D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C6BE90-97A8-44BA-9A5D-5C88ACFDDF61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="888" windowWidth="12516" windowHeight="12228" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="36" yWindow="132" windowWidth="12516" windowHeight="12228" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>State</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Croatia</t>
   </si>
 </sst>
 </file>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,76 +772,76 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C3">
-        <v>-30.0002</v>
+        <v>28.033899999999999</v>
       </c>
       <c r="D3">
-        <v>136.20920000000001</v>
+        <v>1.6596</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>-31.2532</v>
+        <v>-30.0002</v>
       </c>
       <c r="D4">
-        <v>146.9211</v>
+        <v>136.20920000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5">
-        <v>-20.9176</v>
+        <v>-31.2532</v>
       </c>
       <c r="D5">
-        <v>142.7028</v>
+        <v>146.9211</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-37.471299999999999</v>
+        <v>-20.9176</v>
       </c>
       <c r="D6">
-        <v>144.7852</v>
+        <v>142.7028</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>-25.2744</v>
+        <v>-37.471299999999999</v>
       </c>
       <c r="D7">
-        <v>133.77510000000001</v>
+        <v>144.7852</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -842,1275 +854,1319 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>26.066700000000001</v>
+        <v>-25.2744</v>
       </c>
       <c r="D9">
-        <v>50.557699999999997</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C10">
-        <v>50.503900000000002</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D10">
-        <v>4.4699</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C11">
-        <v>-14.234999999999999</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D11">
-        <v>-51.9253</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>50.503900000000002</v>
+      </c>
+      <c r="D12">
+        <v>4.4699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D13">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>12.5657</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D13">
-        <v>-127.6476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>51.253799999999998</v>
-      </c>
-      <c r="D14">
-        <v>-85.3232</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15">
-        <v>42.984900000000003</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D15">
-        <v>-81.2453</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16">
-        <v>43.653199999999998</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D16">
-        <v>-79.383200000000002</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>31.863889</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D17">
-        <v>117.280833</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>39.928818999999997</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D18">
-        <v>116.388869</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>29.562778000000002</v>
+        <v>31.863889</v>
       </c>
       <c r="D19">
-        <v>106.552778</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>26.061388999999998</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D20">
-        <v>119.306111</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>36.057006000000001</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D21">
-        <v>103.839868</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>23.116667</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D22">
-        <v>113.25</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>22.816666999999999</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D23">
-        <v>108.316667</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>26.583333</v>
+        <v>23.116667</v>
       </c>
       <c r="D24">
-        <v>106.716667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>20.045832999999998</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D25">
-        <v>110.341667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>38.041389000000002</v>
+        <v>26.583333</v>
       </c>
       <c r="D26">
-        <v>114.478611</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>45.75</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D27">
-        <v>126.65</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>34.683610999999999</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D28">
-        <v>113.5325</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>30.583333</v>
+        <v>45.75</v>
       </c>
       <c r="D29">
-        <v>114.266667</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>28.2</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D30">
-        <v>112.966667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>40.810555999999998</v>
+        <v>30.583333</v>
       </c>
       <c r="D31">
-        <v>111.65222199999999</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>32.061667</v>
+        <v>28.2</v>
       </c>
       <c r="D32">
-        <v>118.777778</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>28.655757999999999</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D33">
-        <v>115.90504900000001</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>43.88</v>
+        <v>32.061667</v>
       </c>
       <c r="D34">
-        <v>125.322778</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>41.792222000000002</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D35">
-        <v>123.432778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>38.468055999999997</v>
+        <v>43.88</v>
       </c>
       <c r="D36">
-        <v>106.273056</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>36.625540999999998</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D37">
-        <v>101.75739</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>34.258333</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D38">
-        <v>108.928611</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>36.668332999999997</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D39">
-        <v>116.99722199999999</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>31.222221999999999</v>
+        <v>34.258333</v>
       </c>
       <c r="D40">
-        <v>121.458056</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>37.869444000000001</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D41">
-        <v>112.560278</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>30.666667</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D42">
-        <v>104.066667</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>39.142221999999997</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D43">
-        <v>117.17666699999999</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>29.65</v>
+        <v>30.666667</v>
       </c>
       <c r="D44">
-        <v>91.1</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>43.807347</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D45">
-        <v>87.630505999999997</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>25.038889000000001</v>
+        <v>29.65</v>
       </c>
       <c r="D46">
-        <v>102.718333</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>43.807347</v>
+      </c>
+      <c r="D47">
+        <v>87.630505999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D48">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>17</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
         <v>30.29365</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48">
-        <v>4.5709</v>
-      </c>
-      <c r="D48">
-        <v>-74.297300000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49">
-        <v>26.820599999999999</v>
-      </c>
-      <c r="D49">
-        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C50">
-        <v>61.924100000000003</v>
+        <v>4.5709</v>
       </c>
       <c r="D50">
-        <v>25.748200000000001</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C51">
-        <v>46.227600000000002</v>
+        <v>45.1</v>
       </c>
       <c r="D51">
-        <v>2.2136999999999998</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C52">
-        <v>51.165700000000001</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D52">
-        <v>10.451499999999999</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C53">
-        <v>48.790399999999998</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D53">
-        <v>11.4979</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>22.302710999999999</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D54">
-        <v>114.177216</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C55">
-        <v>20.593699999999998</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D55">
-        <v>78.962900000000005</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C56">
-        <v>32.427900000000001</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D56">
-        <v>53.688000000000002</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="C57">
-        <v>33.223199999999999</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D57">
-        <v>43.679299999999998</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>100</v>
-      </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>31.046099999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D58">
-        <v>34.851599999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C59">
-        <v>41.871899999999997</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D59">
-        <v>12.567399999999999</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C60">
-        <v>7.54</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D60">
-        <v>-5.5471000000000004</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C61">
-        <v>35.685000000000002</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D61">
-        <v>139.75138899999999</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>29.311699999999998</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D62">
-        <v>47.4818</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C63">
-        <v>33.854700000000001</v>
+        <v>7.54</v>
       </c>
       <c r="D63">
-        <v>35.862299999999998</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>35.685000000000002</v>
+      </c>
+      <c r="D64">
+        <v>139.75138899999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65">
+        <v>29.311699999999998</v>
+      </c>
+      <c r="D65">
+        <v>47.4818</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66">
+        <v>33.854700000000001</v>
+      </c>
+      <c r="D66">
+        <v>35.862299999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>33</v>
       </c>
-      <c r="C64">
+      <c r="C67">
         <v>22.200559999999999</v>
       </c>
-      <c r="D64">
+      <c r="D67">
         <v>113.54611</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>55</v>
       </c>
-      <c r="C65">
+      <c r="C68">
         <v>4.2104999999999997</v>
       </c>
-      <c r="D65">
+      <c r="D68">
         <v>101.97580000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>62</v>
       </c>
-      <c r="C66">
+      <c r="C69">
         <v>23.634499999999999</v>
       </c>
-      <c r="D66">
+      <c r="D69">
         <v>-102.5528</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>37</v>
       </c>
-      <c r="C67">
+      <c r="C70">
         <v>28.3949</v>
       </c>
-      <c r="D67">
+      <c r="D70">
         <v>84.123999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>110</v>
       </c>
-      <c r="C68">
+      <c r="C71">
         <v>21.473500000000001</v>
       </c>
-      <c r="D68">
+      <c r="D71">
         <v>55.9754</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C69">
+      <c r="C72">
         <v>12.8797</v>
       </c>
-      <c r="D69">
+      <c r="D72">
         <v>121.774</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C70">
+      <c r="C73">
         <v>61.524000000000001</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>105.3188</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>63</v>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>1.3521000000000001</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>103.8198</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>28</v>
       </c>
-      <c r="C72">
+      <c r="C75">
         <v>37.598500000000001</v>
       </c>
-      <c r="D72">
+      <c r="D75">
         <v>126.9783</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C76">
         <v>40.463700000000003</v>
       </c>
-      <c r="D73">
+      <c r="D76">
         <v>-3.7492000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>65</v>
       </c>
-      <c r="C74">
+      <c r="C77">
         <v>7.8731</v>
       </c>
-      <c r="D74">
+      <c r="D77">
         <v>80.771799999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="C75">
+      <c r="C78">
         <v>60.1282</v>
       </c>
-      <c r="D75">
+      <c r="D78">
         <v>18.6435</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="D79">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C76">
+      <c r="C80">
         <v>23.697808999999999</v>
       </c>
-      <c r="D76">
+      <c r="D80">
         <v>120.96051799999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>27</v>
       </c>
-      <c r="C77">
+      <c r="C81">
         <v>13.730579000000001</v>
       </c>
-      <c r="D77">
+      <c r="D81">
         <v>100.523884</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>74</v>
       </c>
-      <c r="C78">
+      <c r="C82">
         <v>55.378100000000003</v>
       </c>
-      <c r="D78">
+      <c r="D82">
         <v>-3.4359999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>47</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>23.424099999999999</v>
       </c>
-      <c r="D79">
+      <c r="D83">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D80">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D81">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D82">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D83">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D84">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
       <c r="C85">
-        <v>40.744999999999997</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D85">
-        <v>-123.8695</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86">
-        <v>40.633099999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D86">
-        <v>-89.398499999999999</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87">
-        <v>41.256500000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D87">
-        <v>-95.9345</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
       </c>
       <c r="C88">
-        <v>41.256500000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D88">
-        <v>-95.9345</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="C89">
-        <v>33.7879</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D89">
-        <v>-117.8531</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
       </c>
       <c r="C90">
-        <v>34.052199999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D90">
-        <v>-118.2437</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D91">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
       <c r="C92">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D92">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
       <c r="C93">
-        <v>43.073099999999997</v>
+        <v>33.7879</v>
       </c>
       <c r="D93">
-        <v>-89.401200000000003</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
       </c>
       <c r="C94">
-        <v>38.474699999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D94">
-        <v>-121.35420000000001</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="C95">
-        <v>29.424099999999999</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D95">
-        <v>-98.493600000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
         <v>30</v>
       </c>
       <c r="C96">
-        <v>36.576099999999997</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D96">
-        <v>-120.9876</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
       </c>
       <c r="C97">
-        <v>32.715699999999998</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D97">
-        <v>-117.1611</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
       </c>
       <c r="C98">
-        <v>37.354100000000003</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D98">
-        <v>-121.9552</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
       </c>
       <c r="C99">
-        <v>47.606200000000001</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D99">
-        <v>-122.3321</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
         <v>30</v>
       </c>
       <c r="C100">
-        <v>33.4255</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D100">
-        <v>-111.94</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
         <v>30</v>
       </c>
       <c r="C101">
-        <v>38.272100000000002</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D101">
-        <v>-121.93989999999999</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
       </c>
       <c r="C102">
-        <v>38.272100000000002</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D102">
-        <v>-121.93989999999999</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103">
-        <v>47.608013</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D103">
-        <v>-122.335167</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
       </c>
       <c r="C104">
-        <v>37.090200000000003</v>
+        <v>33.4255</v>
       </c>
       <c r="D104">
-        <v>-95.712900000000005</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C105">
-        <v>14.058299999999999</v>
+        <v>38.272100000000002</v>
       </c>
       <c r="D105">
-        <v>108.27719999999999</v>
+        <v>-121.93989999999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D106">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>47.608013</v>
+      </c>
+      <c r="D107">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D108">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D109">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>90</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B110" t="s">
         <v>89</v>
       </c>
-      <c r="C106">
+      <c r="C110">
         <v>35.4437</v>
       </c>
-      <c r="D106">
+      <c r="D110">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D105">
-    <sortCondition ref="B4:B105"/>
-    <sortCondition ref="A4:A105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D109">
+    <sortCondition ref="B5:B109"/>
+    <sortCondition ref="A5:A109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C6BE90-97A8-44BA-9A5D-5C88ACFDDF61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9412A11-D697-48DE-89AF-01946CC711CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="132" windowWidth="12516" windowHeight="12228" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="14304" yWindow="4608" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>State</t>
   </si>
@@ -382,6 +382,24 @@
   </si>
   <si>
     <t>Croatia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
   </si>
 </sst>
 </file>
@@ -733,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,708 +1483,785 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C55">
-        <v>51.165700000000001</v>
+        <v>42.315399999999997</v>
       </c>
       <c r="D55">
-        <v>10.451499999999999</v>
+        <v>43.356900000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
       <c r="B56" t="s">
         <v>70</v>
       </c>
       <c r="C56">
+        <v>51.165700000000001</v>
+      </c>
+      <c r="D56">
+        <v>10.451499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
         <v>48.790399999999998</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>11.4979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <v>22.302710999999999</v>
-      </c>
-      <c r="D57">
-        <v>114.177216</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C58">
-        <v>20.593699999999998</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D58">
-        <v>78.962900000000005</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>32.427900000000001</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D59">
-        <v>53.688000000000002</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>33.223199999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D60">
-        <v>43.679299999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>100</v>
-      </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C61">
-        <v>31.046099999999999</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D61">
-        <v>34.851599999999998</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C62">
-        <v>41.871899999999997</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D62">
-        <v>12.567399999999999</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C63">
-        <v>7.54</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D63">
-        <v>-5.5471000000000004</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C64">
-        <v>35.685000000000002</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D64">
-        <v>139.75138899999999</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>29.311699999999998</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D65">
-        <v>47.4818</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>33.854700000000001</v>
+        <v>7.54</v>
       </c>
       <c r="D66">
-        <v>35.862299999999998</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C67">
-        <v>22.200559999999999</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D67">
-        <v>113.54611</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C68">
-        <v>4.2104999999999997</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D68">
-        <v>101.97580000000001</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>23.634499999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D69">
-        <v>-102.5528</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C70">
-        <v>28.3949</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D70">
-        <v>84.123999999999995</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C71">
-        <v>21.473500000000001</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D71">
-        <v>55.9754</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>12.8797</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D72">
-        <v>121.774</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C73">
-        <v>61.524000000000001</v>
+        <v>28.3949</v>
       </c>
       <c r="D73">
-        <v>105.3188</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C74">
-        <v>1.3521000000000001</v>
+        <v>60.472000000000001</v>
       </c>
       <c r="D74">
-        <v>103.8198</v>
+        <v>8.4688999999999997</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C75">
-        <v>37.598500000000001</v>
+        <v>41.608600000000003</v>
       </c>
       <c r="D75">
-        <v>126.9783</v>
+        <v>21.7453</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C76">
-        <v>40.463700000000003</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="D76">
-        <v>-3.7492000000000001</v>
+        <v>55.9754</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C77">
-        <v>7.8731</v>
+        <v>30.375299999999999</v>
       </c>
       <c r="D77">
-        <v>80.771799999999999</v>
+        <v>69.345100000000002</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C78">
-        <v>60.1282</v>
+        <v>12.8797</v>
       </c>
       <c r="D78">
-        <v>18.6435</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C79">
-        <v>46.818199999999997</v>
+        <v>45.943199999999997</v>
       </c>
       <c r="D79">
-        <v>8.2274999999999991</v>
+        <v>24.966799999999999</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C80">
-        <v>23.697808999999999</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D80">
-        <v>120.96051799999999</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C81">
-        <v>13.730579000000001</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D81">
-        <v>100.523884</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C82">
-        <v>55.378100000000003</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D82">
-        <v>-3.4359999999999999</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="D83">
+        <v>-3.7492000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84">
+        <v>7.8731</v>
+      </c>
+      <c r="D84">
+        <v>80.771799999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85">
+        <v>60.1282</v>
+      </c>
+      <c r="D85">
+        <v>18.6435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="D86">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D87">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D88">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D89">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>47</v>
       </c>
-      <c r="C83">
+      <c r="C90">
         <v>23.424099999999999</v>
       </c>
-      <c r="D83">
+      <c r="D90">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D84">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D85">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D86">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D87">
-        <v>-119.4179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88">
-        <v>41.878100000000003</v>
-      </c>
-      <c r="D88">
-        <v>-87.629800000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89">
-        <v>40.744999999999997</v>
-      </c>
-      <c r="D89">
-        <v>-123.8695</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90">
-        <v>40.633099999999999</v>
-      </c>
-      <c r="D90">
-        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91">
-        <v>41.256500000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D91">
-        <v>-95.9345</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
       <c r="C92">
-        <v>41.256500000000003</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D92">
-        <v>-95.9345</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
       <c r="C93">
-        <v>33.7879</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D93">
-        <v>-117.8531</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
       </c>
       <c r="C94">
-        <v>34.052199999999999</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D94">
-        <v>-118.2437</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="C95">
-        <v>29.387799999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D95">
-        <v>-98.620500000000007</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
         <v>30</v>
       </c>
       <c r="C96">
-        <v>29.387799999999999</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D96">
-        <v>-98.620500000000007</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
       </c>
       <c r="C97">
-        <v>43.073099999999997</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D97">
-        <v>-89.401200000000003</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
       </c>
       <c r="C98">
-        <v>38.474699999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D98">
-        <v>-121.35420000000001</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
       </c>
       <c r="C99">
-        <v>29.424099999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D99">
-        <v>-98.493600000000001</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
         <v>30</v>
       </c>
       <c r="C100">
-        <v>36.576099999999997</v>
+        <v>33.7879</v>
       </c>
       <c r="D100">
-        <v>-120.9876</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
         <v>30</v>
       </c>
       <c r="C101">
-        <v>32.715699999999998</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D101">
-        <v>-117.1611</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
       </c>
       <c r="C102">
-        <v>37.354100000000003</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D102">
-        <v>-121.9552</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103">
-        <v>47.606200000000001</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D103">
-        <v>-122.3321</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
       </c>
       <c r="C104">
-        <v>33.4255</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D104">
-        <v>-111.94</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
         <v>30</v>
       </c>
       <c r="C105">
-        <v>38.272100000000002</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D105">
-        <v>-121.93989999999999</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
       </c>
       <c r="C106">
-        <v>38.272100000000002</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D106">
-        <v>-121.93989999999999</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
         <v>30</v>
       </c>
       <c r="C107">
-        <v>47.608013</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D107">
-        <v>-122.335167</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
       </c>
       <c r="C108">
-        <v>37.090200000000003</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D108">
-        <v>-95.712900000000005</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C109">
-        <v>14.058299999999999</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D109">
-        <v>108.27719999999999</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D110">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>33.4255</v>
+      </c>
+      <c r="D111">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D112">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D113">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114">
+        <v>47.608013</v>
+      </c>
+      <c r="D114">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D115">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D116">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>90</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B117" t="s">
         <v>89</v>
       </c>
-      <c r="C110">
+      <c r="C117">
         <v>35.4437</v>
       </c>
-      <c r="D110">
+      <c r="D117">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D109">
-    <sortCondition ref="B5:B109"/>
-    <sortCondition ref="A5:A109"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D116">
+    <sortCondition ref="B5:B116"/>
+    <sortCondition ref="A5:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9412A11-D697-48DE-89AF-01946CC711CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226781B-D3D1-4C38-89E6-7F51217B9C93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14304" yWindow="4608" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="8064" yWindow="1764" windowWidth="17280" windowHeight="9756" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t>State</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>Pakistan</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Denmark</t>
   </si>
 </sst>
 </file>
@@ -751,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,818 +1462,862 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C52">
-        <v>26.820599999999999</v>
+        <v>56.2639</v>
       </c>
       <c r="D52">
-        <v>30.802499999999998</v>
+        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C53">
-        <v>61.924100000000003</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D53">
-        <v>25.748200000000001</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C54">
-        <v>46.227600000000002</v>
+        <v>58.595300000000002</v>
       </c>
       <c r="D54">
-        <v>2.2136999999999998</v>
+        <v>25.0136</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C55">
-        <v>42.315399999999997</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D55">
-        <v>43.356900000000003</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C56">
-        <v>51.165700000000001</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D56">
-        <v>10.451499999999999</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C57">
-        <v>48.790399999999998</v>
+        <v>42.315399999999997</v>
       </c>
       <c r="D57">
-        <v>11.4979</v>
+        <v>43.356900000000003</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>39.074199999999998</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D58">
-        <v>21.824300000000001</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C59">
-        <v>22.302710999999999</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D59">
-        <v>114.177216</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C60">
-        <v>20.593699999999998</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D60">
-        <v>78.962900000000005</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>32.427900000000001</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D61">
-        <v>53.688000000000002</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>33.223199999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D62">
-        <v>43.679299999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63">
+        <v>32.427900000000001</v>
+      </c>
+      <c r="D63">
+        <v>53.688000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64">
+        <v>33.223199999999999</v>
+      </c>
+      <c r="D64">
+        <v>43.679299999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>103</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>31.046099999999999</v>
       </c>
-      <c r="D63">
+      <c r="D65">
         <v>34.851599999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>100</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>103</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>31.046099999999999</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <v>34.851599999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>71</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>41.871899999999997</v>
       </c>
-      <c r="D65">
+      <c r="D67">
         <v>12.567399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>7.54</v>
       </c>
-      <c r="D66">
+      <c r="D68">
         <v>-5.5471000000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>35.685000000000002</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <v>139.75138899999999</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>112</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>29.311699999999998</v>
       </c>
-      <c r="D68">
+      <c r="D70">
         <v>47.4818</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>97</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>33.854700000000001</v>
       </c>
-      <c r="D69">
+      <c r="D71">
         <v>35.862299999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>33</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>22.200559999999999</v>
       </c>
-      <c r="D70">
+      <c r="D72">
         <v>113.54611</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>55</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>4.2104999999999997</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <v>101.97580000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>62</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>23.634499999999999</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>-102.5528</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>37</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>28.3949</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <v>84.123999999999995</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76">
+        <v>52.132599999999996</v>
+      </c>
+      <c r="D76">
+        <v>5.2912999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="C74">
+      <c r="C77">
         <v>60.472000000000001</v>
       </c>
-      <c r="D74">
+      <c r="D77">
         <v>8.4688999999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>119</v>
       </c>
-      <c r="C75">
+      <c r="C78">
         <v>41.608600000000003</v>
       </c>
-      <c r="D75">
+      <c r="D78">
         <v>21.7453</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>110</v>
       </c>
-      <c r="C76">
+      <c r="C79">
         <v>21.473500000000001</v>
       </c>
-      <c r="D76">
+      <c r="D79">
         <v>55.9754</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>122</v>
       </c>
-      <c r="C77">
+      <c r="C80">
         <v>30.375299999999999</v>
       </c>
-      <c r="D77">
+      <c r="D80">
         <v>69.345100000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78">
-        <v>12.8797</v>
-      </c>
-      <c r="D78">
-        <v>121.774</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79">
-        <v>45.943199999999997</v>
-      </c>
-      <c r="D79">
-        <v>24.966799999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80">
-        <v>61.524000000000001</v>
-      </c>
-      <c r="D80">
-        <v>105.3188</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C81">
-        <v>1.3521000000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D81">
-        <v>103.8198</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C82">
-        <v>37.598500000000001</v>
+        <v>45.943199999999997</v>
       </c>
       <c r="D82">
-        <v>126.9783</v>
+        <v>24.966799999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>40.463700000000003</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D83">
-        <v>-3.7492000000000001</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C84">
-        <v>7.8731</v>
+        <v>43.942399999999999</v>
       </c>
       <c r="D84">
-        <v>80.771799999999999</v>
+        <v>12.457800000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C85">
-        <v>60.1282</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D85">
-        <v>18.6435</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="C86">
-        <v>46.818199999999997</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D86">
-        <v>8.2274999999999991</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>23.697808999999999</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D87">
-        <v>120.96051799999999</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C88">
-        <v>13.730579000000001</v>
+        <v>7.8731</v>
       </c>
       <c r="D88">
-        <v>100.523884</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89">
-        <v>55.378100000000003</v>
+        <v>60.1282</v>
       </c>
       <c r="D89">
-        <v>-3.4359999999999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="D90">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D91">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D92">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D93">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>47</v>
       </c>
-      <c r="C90">
+      <c r="C94">
         <v>23.424099999999999</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D91">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D92">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D93">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D94">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
       </c>
       <c r="C95">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D95">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>30</v>
       </c>
       <c r="C96">
-        <v>40.744999999999997</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D96">
-        <v>-123.8695</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
       </c>
       <c r="C97">
-        <v>40.633099999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D97">
-        <v>-89.398499999999999</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
       </c>
       <c r="C98">
-        <v>41.256500000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D98">
-        <v>-95.9345</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
       </c>
       <c r="C99">
-        <v>41.256500000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D99">
-        <v>-95.9345</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
         <v>30</v>
       </c>
       <c r="C100">
-        <v>33.7879</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D100">
-        <v>-117.8531</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
         <v>30</v>
       </c>
       <c r="C101">
-        <v>34.052199999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D101">
-        <v>-118.2437</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
       </c>
       <c r="C102">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D102">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D103">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
       </c>
       <c r="C104">
-        <v>43.073099999999997</v>
+        <v>33.7879</v>
       </c>
       <c r="D104">
-        <v>-89.401200000000003</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
         <v>30</v>
       </c>
       <c r="C105">
-        <v>38.474699999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D105">
-        <v>-121.35420000000001</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
       </c>
       <c r="C106">
-        <v>29.424099999999999</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D106">
-        <v>-98.493600000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>30</v>
       </c>
       <c r="C107">
-        <v>36.576099999999997</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D107">
-        <v>-120.9876</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
       </c>
       <c r="C108">
-        <v>32.715699999999998</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D108">
-        <v>-117.1611</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
       </c>
       <c r="C109">
-        <v>37.354100000000003</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D109">
-        <v>-121.9552</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
       </c>
       <c r="C110">
-        <v>47.606200000000001</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D110">
-        <v>-122.3321</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
       </c>
       <c r="C111">
-        <v>33.4255</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D111">
-        <v>-111.94</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
       </c>
       <c r="C112">
-        <v>38.272100000000002</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D112">
-        <v>-121.93989999999999</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
       <c r="C113">
-        <v>38.272100000000002</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D113">
-        <v>-121.93989999999999</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
         <v>30</v>
       </c>
       <c r="C114">
-        <v>47.608013</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D114">
-        <v>-122.335167</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
         <v>30</v>
       </c>
       <c r="C115">
-        <v>37.090200000000003</v>
+        <v>33.4255</v>
       </c>
       <c r="D115">
-        <v>-95.712900000000005</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C116">
-        <v>14.058299999999999</v>
+        <v>38.272100000000002</v>
       </c>
       <c r="D116">
-        <v>108.27719999999999</v>
+        <v>-121.93989999999999</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D117">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>47.608013</v>
+      </c>
+      <c r="D118">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D119">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D120">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>90</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B121" t="s">
         <v>89</v>
       </c>
-      <c r="C117">
+      <c r="C121">
         <v>35.4437</v>
       </c>
-      <c r="D117">
+      <c r="D121">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D116">
-    <sortCondition ref="B5:B116"/>
-    <sortCondition ref="A5:A116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D120">
+    <sortCondition ref="B5:B120"/>
+    <sortCondition ref="A5:A120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226781B-D3D1-4C38-89E6-7F51217B9C93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68777864-93BE-4FC4-9BFD-32FF308092D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8064" yWindow="1764" windowWidth="17280" windowHeight="9756" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="7800" yWindow="948" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
   <si>
     <t>State</t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>Montreal, QC</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>North Ireland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Belarus</t>
   </si>
 </sst>
 </file>
@@ -763,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,1418 +930,1509 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C11">
-        <v>26.066700000000001</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D11">
-        <v>50.557699999999997</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C12">
-        <v>50.503900000000002</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D12">
-        <v>4.4699</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="C13">
-        <v>-14.234999999999999</v>
+        <v>53.709800000000001</v>
       </c>
       <c r="D13">
-        <v>-51.9253</v>
+        <v>27.953399999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>50.503900000000002</v>
+      </c>
+      <c r="D14">
+        <v>4.4699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D15">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>12.5657</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D15">
-        <v>-127.6476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16">
-        <v>51.253799999999998</v>
-      </c>
-      <c r="D16">
-        <v>-85.3232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17">
-        <v>42.984900000000003</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D17">
-        <v>-81.2453</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18">
-        <v>43.653199999999998</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D18">
-        <v>-79.383200000000002</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>31.863889</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D19">
-        <v>117.280833</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>39.928818999999997</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D20">
-        <v>116.388869</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>29.562778000000002</v>
+        <v>45.5017</v>
       </c>
       <c r="D21">
-        <v>106.552778</v>
+        <v>-73.567300000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>26.061388999999998</v>
+        <v>31.863889</v>
       </c>
       <c r="D22">
-        <v>119.306111</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>36.057006000000001</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D23">
-        <v>103.839868</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>23.116667</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D24">
-        <v>113.25</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>22.816666999999999</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D25">
-        <v>108.316667</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>26.583333</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D26">
-        <v>106.716667</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>20.045832999999998</v>
+        <v>23.116667</v>
       </c>
       <c r="D27">
-        <v>110.341667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>38.041389000000002</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D28">
-        <v>114.478611</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>45.75</v>
+        <v>26.583333</v>
       </c>
       <c r="D29">
-        <v>126.65</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>34.683610999999999</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D30">
-        <v>113.5325</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>30.583333</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D31">
-        <v>114.266667</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>28.2</v>
+        <v>45.75</v>
       </c>
       <c r="D32">
-        <v>112.966667</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>40.810555999999998</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D33">
-        <v>111.65222199999999</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>32.061667</v>
+        <v>30.583333</v>
       </c>
       <c r="D34">
-        <v>118.777778</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>28.655757999999999</v>
+        <v>28.2</v>
       </c>
       <c r="D35">
-        <v>115.90504900000001</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>43.88</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D36">
-        <v>125.322778</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>41.792222000000002</v>
+        <v>32.061667</v>
       </c>
       <c r="D37">
-        <v>123.432778</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>38.468055999999997</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D38">
-        <v>106.273056</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>36.625540999999998</v>
+        <v>43.88</v>
       </c>
       <c r="D39">
-        <v>101.75739</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>34.258333</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D40">
-        <v>108.928611</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>36.668332999999997</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D41">
-        <v>116.99722199999999</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>31.222221999999999</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D42">
-        <v>121.458056</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>37.869444000000001</v>
+        <v>34.258333</v>
       </c>
       <c r="D43">
-        <v>112.560278</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>30.666667</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D44">
-        <v>104.066667</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>39.142221999999997</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D45">
-        <v>117.17666699999999</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>29.65</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D46">
-        <v>91.1</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>43.807347</v>
+        <v>30.666667</v>
       </c>
       <c r="D47">
-        <v>87.630505999999997</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>25.038889000000001</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D48">
-        <v>102.718333</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>29.65</v>
+      </c>
+      <c r="D49">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>43.807347</v>
+      </c>
+      <c r="D50">
+        <v>87.630505999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D51">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>17</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
         <v>30.29365</v>
       </c>
-      <c r="D49">
+      <c r="D52">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>4.5709</v>
-      </c>
-      <c r="D50">
-        <v>-74.297300000000007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51">
-        <v>45.1</v>
-      </c>
-      <c r="D51">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52">
-        <v>56.2639</v>
-      </c>
-      <c r="D52">
-        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C53">
-        <v>26.820599999999999</v>
+        <v>4.5709</v>
       </c>
       <c r="D53">
-        <v>30.802499999999998</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C54">
-        <v>58.595300000000002</v>
+        <v>45.1</v>
       </c>
       <c r="D54">
-        <v>25.0136</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C55">
-        <v>61.924100000000003</v>
+        <v>56.2639</v>
       </c>
       <c r="D55">
-        <v>25.748200000000001</v>
+        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C56">
-        <v>46.227600000000002</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D56">
-        <v>2.2136999999999998</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C57">
-        <v>42.315399999999997</v>
+        <v>58.595300000000002</v>
       </c>
       <c r="D57">
-        <v>43.356900000000003</v>
+        <v>25.0136</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C58">
-        <v>51.165700000000001</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D58">
-        <v>10.451499999999999</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C59">
-        <v>48.790399999999998</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D59">
-        <v>11.4979</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60">
-        <v>39.074199999999998</v>
+        <v>42.315399999999997</v>
       </c>
       <c r="D60">
-        <v>21.824300000000001</v>
+        <v>43.356900000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C61">
-        <v>22.302710999999999</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D61">
-        <v>114.177216</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C62">
-        <v>20.593699999999998</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D62">
-        <v>78.962900000000005</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C63">
-        <v>32.427900000000001</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D63">
-        <v>53.688000000000002</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="C64">
-        <v>33.223199999999999</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D64">
-        <v>43.679299999999998</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C65">
-        <v>31.046099999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D65">
-        <v>34.851599999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>100</v>
-      </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C66">
-        <v>31.046099999999999</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D66">
-        <v>34.851599999999998</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C67">
-        <v>41.871899999999997</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D67">
-        <v>12.567399999999999</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C68">
-        <v>7.54</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D68">
-        <v>-5.5471000000000004</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C69">
-        <v>35.685000000000002</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D69">
-        <v>139.75138899999999</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>29.311699999999998</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D70">
-        <v>47.4818</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C71">
-        <v>33.854700000000001</v>
+        <v>7.54</v>
       </c>
       <c r="D71">
-        <v>35.862299999999998</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>22.200559999999999</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D72">
-        <v>113.54611</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C73">
-        <v>4.2104999999999997</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D73">
-        <v>101.97580000000001</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C74">
-        <v>23.634499999999999</v>
+        <v>64.963099999999997</v>
       </c>
       <c r="D74">
-        <v>-102.5528</v>
+        <v>-19.020800000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C75">
-        <v>28.3949</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D75">
-        <v>84.123999999999995</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C76">
-        <v>52.132599999999996</v>
+        <v>55.169400000000003</v>
       </c>
       <c r="D76">
-        <v>5.2912999999999997</v>
+        <v>23.8813</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C77">
-        <v>60.472000000000001</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D77">
-        <v>8.4688999999999997</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C78">
-        <v>41.608600000000003</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D78">
-        <v>21.7453</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C79">
-        <v>21.473500000000001</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D79">
-        <v>55.9754</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80">
+        <v>28.3949</v>
+      </c>
+      <c r="D80">
+        <v>84.123999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81">
+        <v>-40.900599999999997</v>
+      </c>
+      <c r="D81">
+        <v>174.886</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <v>52.132599999999996</v>
+      </c>
+      <c r="D82">
+        <v>5.2912999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="D83">
+        <v>8.6753</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84">
+        <v>60.472000000000001</v>
+      </c>
+      <c r="D84">
+        <v>8.4688999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85">
+        <v>54.787700000000001</v>
+      </c>
+      <c r="D85">
+        <v>-6.4923000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86">
+        <v>41.608600000000003</v>
+      </c>
+      <c r="D86">
+        <v>21.7453</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87">
+        <v>21.473500000000001</v>
+      </c>
+      <c r="D87">
+        <v>55.9754</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>122</v>
       </c>
-      <c r="C80">
+      <c r="C88">
         <v>30.375299999999999</v>
       </c>
-      <c r="D80">
+      <c r="D88">
         <v>69.345100000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C81">
+      <c r="C89">
         <v>12.8797</v>
       </c>
-      <c r="D81">
+      <c r="D89">
         <v>121.774</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>118</v>
       </c>
-      <c r="C82">
+      <c r="C90">
         <v>45.943199999999997</v>
       </c>
-      <c r="D82">
+      <c r="D90">
         <v>24.966799999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C91">
         <v>61.524000000000001</v>
       </c>
-      <c r="D83">
+      <c r="D91">
         <v>105.3188</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>123</v>
       </c>
-      <c r="C84">
+      <c r="C92">
         <v>43.942399999999999</v>
       </c>
-      <c r="D84">
+      <c r="D92">
         <v>12.457800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>63</v>
       </c>
-      <c r="C85">
+      <c r="C93">
         <v>1.3521000000000001</v>
       </c>
-      <c r="D85">
+      <c r="D93">
         <v>103.8198</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>28</v>
       </c>
-      <c r="C86">
+      <c r="C94">
         <v>37.598500000000001</v>
       </c>
-      <c r="D86">
+      <c r="D94">
         <v>126.9783</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>72</v>
       </c>
-      <c r="C87">
+      <c r="C95">
         <v>40.463700000000003</v>
       </c>
-      <c r="D87">
+      <c r="D95">
         <v>-3.7492000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>65</v>
       </c>
-      <c r="C88">
+      <c r="C96">
         <v>7.8731</v>
       </c>
-      <c r="D88">
+      <c r="D96">
         <v>80.771799999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>73</v>
       </c>
-      <c r="C89">
+      <c r="C97">
         <v>60.1282</v>
       </c>
-      <c r="D89">
+      <c r="D97">
         <v>18.6435</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>115</v>
       </c>
-      <c r="C90">
+      <c r="C98">
         <v>46.818199999999997</v>
       </c>
-      <c r="D90">
+      <c r="D98">
         <v>8.2274999999999991</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="C91">
+      <c r="C99">
         <v>23.697808999999999</v>
       </c>
-      <c r="D91">
+      <c r="D99">
         <v>120.96051799999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="C92">
+      <c r="C100">
         <v>13.730579000000001</v>
       </c>
-      <c r="D92">
+      <c r="D100">
         <v>100.523884</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>74</v>
       </c>
-      <c r="C93">
+      <c r="C101">
         <v>55.378100000000003</v>
       </c>
-      <c r="D93">
+      <c r="D101">
         <v>-3.4359999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>47</v>
       </c>
-      <c r="C94">
+      <c r="C102">
         <v>23.424099999999999</v>
       </c>
-      <c r="D94">
+      <c r="D102">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D95">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D96">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D97">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D98">
-        <v>-119.4179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99">
-        <v>41.878100000000003</v>
-      </c>
-      <c r="D99">
-        <v>-87.629800000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100">
-        <v>40.744999999999997</v>
-      </c>
-      <c r="D100">
-        <v>-123.8695</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101">
-        <v>40.633099999999999</v>
-      </c>
-      <c r="D101">
-        <v>-89.398499999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" t="s">
-        <v>30</v>
-      </c>
-      <c r="C102">
-        <v>41.256500000000003</v>
-      </c>
-      <c r="D102">
-        <v>-95.9345</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103">
-        <v>41.256500000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D103">
-        <v>-95.9345</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
       </c>
       <c r="C104">
-        <v>33.7879</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D104">
-        <v>-117.8531</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
         <v>30</v>
       </c>
       <c r="C105">
-        <v>34.052199999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D105">
-        <v>-118.2437</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
       </c>
       <c r="C106">
-        <v>29.387799999999999</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D106">
-        <v>-98.620500000000007</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B107" t="s">
         <v>30</v>
       </c>
       <c r="C107">
-        <v>29.387799999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D107">
-        <v>-98.620500000000007</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
       </c>
       <c r="C108">
-        <v>43.073099999999997</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D108">
-        <v>-89.401200000000003</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
       </c>
       <c r="C109">
-        <v>38.474699999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D109">
-        <v>-121.35420000000001</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
       </c>
       <c r="C110">
-        <v>29.424099999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D110">
-        <v>-98.493600000000001</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
       </c>
       <c r="C111">
-        <v>36.576099999999997</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D111">
-        <v>-120.9876</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
       </c>
       <c r="C112">
-        <v>32.715699999999998</v>
+        <v>33.7879</v>
       </c>
       <c r="D112">
-        <v>-117.1611</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
       <c r="C113">
-        <v>37.354100000000003</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D113">
-        <v>-121.9552</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B114" t="s">
         <v>30</v>
       </c>
       <c r="C114">
-        <v>47.606200000000001</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D114">
-        <v>-122.3321</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B115" t="s">
         <v>30</v>
       </c>
       <c r="C115">
-        <v>33.4255</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D115">
-        <v>-111.94</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B116" t="s">
         <v>30</v>
       </c>
       <c r="C116">
-        <v>38.272100000000002</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D116">
-        <v>-121.93989999999999</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B117" t="s">
         <v>30</v>
       </c>
       <c r="C117">
-        <v>38.272100000000002</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D117">
-        <v>-121.93989999999999</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
         <v>30</v>
       </c>
       <c r="C118">
-        <v>47.608013</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D118">
-        <v>-122.335167</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
       </c>
       <c r="C119">
-        <v>37.090200000000003</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D119">
-        <v>-95.712900000000005</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>91</v>
+      </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C120">
-        <v>14.058299999999999</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D120">
-        <v>108.27719999999999</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <v>37.354100000000003</v>
+      </c>
+      <c r="D121">
+        <v>-121.9552</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D122">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>33.4255</v>
+      </c>
+      <c r="D123">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D124">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>104</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D125">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126">
+        <v>47.608013</v>
+      </c>
+      <c r="D126">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D127">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D128">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>90</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B129" t="s">
         <v>89</v>
       </c>
-      <c r="C121">
+      <c r="C129">
         <v>35.4437</v>
       </c>
-      <c r="D121">
+      <c r="D129">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D120">
-    <sortCondition ref="B5:B120"/>
-    <sortCondition ref="A5:A120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D128">
+    <sortCondition ref="B5:B128"/>
+    <sortCondition ref="A5:A128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68777864-93BE-4FC4-9BFD-32FF308092D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB01F6-B26D-4F16-A5EB-2672ED409270}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="948" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="7668" yWindow="252" windowWidth="12600" windowHeight="11772" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>State</t>
   </si>
@@ -436,6 +436,27 @@
   </si>
   <si>
     <t>Belarus</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>Snohomish County, WA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
@@ -787,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,19 +915,22 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>-25.2744</v>
+        <v>-27.672799999999999</v>
       </c>
       <c r="D8">
-        <v>133.77510000000001</v>
+        <v>121.6283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
@@ -919,768 +943,765 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>47.516199999999998</v>
+        <v>-25.2744</v>
       </c>
       <c r="D10">
-        <v>14.5501</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C11">
-        <v>40.143099999999997</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D11">
-        <v>47.576900000000002</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>26.066700000000001</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D12">
-        <v>50.557699999999997</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>53.709800000000001</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D13">
-        <v>27.953399999999998</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C14">
-        <v>50.503900000000002</v>
+        <v>53.709800000000001</v>
       </c>
       <c r="D14">
-        <v>4.4699</v>
+        <v>27.953399999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C15">
-        <v>-14.234999999999999</v>
+        <v>50.503900000000002</v>
       </c>
       <c r="D15">
-        <v>-51.9253</v>
+        <v>4.4699</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D16">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>12.5657</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D17">
-        <v>-127.6476</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18">
-        <v>51.253799999999998</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D18">
-        <v>-85.3232</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19">
-        <v>42.984900000000003</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D19">
-        <v>-81.2453</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>43.653199999999998</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D20">
-        <v>-79.383200000000002</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21">
-        <v>45.5017</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D21">
-        <v>-73.567300000000003</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>31.863889</v>
+        <v>45.5017</v>
       </c>
       <c r="D22">
-        <v>117.280833</v>
+        <v>-73.567300000000003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>39.928818999999997</v>
+        <v>31.863889</v>
       </c>
       <c r="D23">
-        <v>116.388869</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>29.562778000000002</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D24">
-        <v>106.552778</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>26.061388999999998</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D25">
-        <v>119.306111</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>36.057006000000001</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D26">
-        <v>103.839868</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>23.116667</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D27">
-        <v>113.25</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>22.816666999999999</v>
+        <v>23.116667</v>
       </c>
       <c r="D28">
-        <v>108.316667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>26.583333</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D29">
-        <v>106.716667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>20.045832999999998</v>
+        <v>26.583333</v>
       </c>
       <c r="D30">
-        <v>110.341667</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>38.041389000000002</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D31">
-        <v>114.478611</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>45.75</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D32">
-        <v>126.65</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>34.683610999999999</v>
+        <v>45.75</v>
       </c>
       <c r="D33">
-        <v>113.5325</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>30.583333</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D34">
-        <v>114.266667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>28.2</v>
+        <v>30.583333</v>
       </c>
       <c r="D35">
-        <v>112.966667</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>40.810555999999998</v>
+        <v>28.2</v>
       </c>
       <c r="D36">
-        <v>111.65222199999999</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>32.061667</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D37">
-        <v>118.777778</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>28.655757999999999</v>
+        <v>32.061667</v>
       </c>
       <c r="D38">
-        <v>115.90504900000001</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>43.88</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D39">
-        <v>125.322778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>41.792222000000002</v>
+        <v>43.88</v>
       </c>
       <c r="D40">
-        <v>123.432778</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>38.468055999999997</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D41">
-        <v>106.273056</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>36.625540999999998</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D42">
-        <v>101.75739</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>34.258333</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D43">
-        <v>108.928611</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>36.668332999999997</v>
+        <v>34.258333</v>
       </c>
       <c r="D44">
-        <v>116.99722199999999</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>31.222221999999999</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D45">
-        <v>121.458056</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>37.869444000000001</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D46">
-        <v>112.560278</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>30.666667</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D47">
-        <v>104.066667</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>39.142221999999997</v>
+        <v>30.666667</v>
       </c>
       <c r="D48">
-        <v>117.17666699999999</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>29.65</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D49">
-        <v>91.1</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>43.807347</v>
+        <v>29.65</v>
       </c>
       <c r="D50">
-        <v>87.630505999999997</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>25.038889000000001</v>
+        <v>43.807347</v>
       </c>
       <c r="D51">
-        <v>102.718333</v>
+        <v>87.630505999999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D52">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
         <v>30.29365</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53">
-        <v>4.5709</v>
-      </c>
-      <c r="D53">
-        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>45.1</v>
+        <v>4.5709</v>
       </c>
       <c r="D54">
-        <v>15.2</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C55">
-        <v>56.2639</v>
+        <v>45.1</v>
       </c>
       <c r="D55">
-        <v>9.5017999999999994</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C56">
-        <v>26.820599999999999</v>
+        <v>56.2639</v>
       </c>
       <c r="D56">
-        <v>30.802499999999998</v>
+        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C57">
-        <v>58.595300000000002</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D57">
-        <v>25.0136</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C58">
-        <v>61.924100000000003</v>
+        <v>58.595300000000002</v>
       </c>
       <c r="D58">
-        <v>25.748200000000001</v>
+        <v>25.0136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C59">
-        <v>46.227600000000002</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D59">
-        <v>2.2136999999999998</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C60">
-        <v>42.315399999999997</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D60">
-        <v>43.356900000000003</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>51.165700000000001</v>
+        <v>42.315399999999997</v>
       </c>
       <c r="D61">
-        <v>10.451499999999999</v>
+        <v>43.356900000000003</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
       <c r="C62">
+        <v>51.165700000000001</v>
+      </c>
+      <c r="D62">
+        <v>10.451499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
         <v>48.790399999999998</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>11.4979</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63">
-        <v>39.074199999999998</v>
-      </c>
-      <c r="D63">
-        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C64">
-        <v>22.302710999999999</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D64">
-        <v>114.177216</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C65">
-        <v>20.593699999999998</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D65">
-        <v>78.962900000000005</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C66">
-        <v>32.427900000000001</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D66">
-        <v>53.688000000000002</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C67">
-        <v>33.223199999999999</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D67">
-        <v>43.679299999999998</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C68">
-        <v>31.046099999999999</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D68">
-        <v>34.851599999999998</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
       <c r="B69" t="s">
         <v>103</v>
       </c>
@@ -1692,747 +1713,833 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C70">
-        <v>41.871899999999997</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D70">
-        <v>12.567399999999999</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>7.54</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D71">
-        <v>-5.5471000000000004</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C72">
-        <v>35.685000000000002</v>
+        <v>7.54</v>
       </c>
       <c r="D72">
-        <v>139.75138899999999</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C73">
-        <v>29.311699999999998</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D73">
-        <v>47.4818</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C74">
-        <v>64.963099999999997</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D74">
-        <v>-19.020800000000001</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C75">
-        <v>33.854700000000001</v>
+        <v>64.963099999999997</v>
       </c>
       <c r="D75">
-        <v>35.862299999999998</v>
+        <v>-19.020800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C76">
-        <v>55.169400000000003</v>
+        <v>53.142400000000002</v>
       </c>
       <c r="D76">
-        <v>23.8813</v>
+        <v>7.6920999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C77">
-        <v>22.200559999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D77">
-        <v>113.54611</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C78">
-        <v>4.2104999999999997</v>
+        <v>55.169400000000003</v>
       </c>
       <c r="D78">
-        <v>101.97580000000001</v>
+        <v>23.8813</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C79">
-        <v>23.634499999999999</v>
+        <v>49.815300000000001</v>
       </c>
       <c r="D79">
-        <v>-102.5528</v>
+        <v>6.1295999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>28.3949</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D80">
-        <v>84.123999999999995</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C81">
-        <v>-40.900599999999997</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D81">
-        <v>174.886</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C82">
-        <v>52.132599999999996</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D82">
-        <v>5.2912999999999997</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C83">
-        <v>9.0820000000000007</v>
+        <v>43.738399999999999</v>
       </c>
       <c r="D83">
-        <v>8.6753</v>
+        <v>7.4245999999999999</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C84">
-        <v>60.472000000000001</v>
+        <v>28.3949</v>
       </c>
       <c r="D84">
-        <v>8.4688999999999997</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C85">
-        <v>54.787700000000001</v>
+        <v>-40.900599999999997</v>
       </c>
       <c r="D85">
-        <v>-6.4923000000000002</v>
+        <v>174.886</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C86">
-        <v>41.608600000000003</v>
+        <v>52.132599999999996</v>
       </c>
       <c r="D86">
-        <v>21.7453</v>
+        <v>5.2912999999999997</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C87">
-        <v>21.473500000000001</v>
+        <v>9.0820000000000007</v>
       </c>
       <c r="D87">
-        <v>55.9754</v>
+        <v>8.6753</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C88">
-        <v>30.375299999999999</v>
+        <v>60.472000000000001</v>
       </c>
       <c r="D88">
-        <v>69.345100000000002</v>
+        <v>8.4688999999999997</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C89">
-        <v>12.8797</v>
+        <v>54.787700000000001</v>
       </c>
       <c r="D89">
-        <v>121.774</v>
+        <v>-6.4923000000000002</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90">
-        <v>45.943199999999997</v>
+        <v>41.608600000000003</v>
       </c>
       <c r="D90">
-        <v>24.966799999999999</v>
+        <v>21.7453</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C91">
-        <v>61.524000000000001</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="D91">
-        <v>105.3188</v>
+        <v>55.9754</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92">
-        <v>43.942399999999999</v>
+        <v>30.375299999999999</v>
       </c>
       <c r="D92">
-        <v>12.457800000000001</v>
+        <v>69.345100000000002</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C93">
-        <v>1.3521000000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D93">
-        <v>103.8198</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="C94">
-        <v>37.598500000000001</v>
+        <v>25.354800000000001</v>
       </c>
       <c r="D94">
-        <v>126.9783</v>
+        <v>51.183900000000001</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C95">
-        <v>40.463700000000003</v>
+        <v>45.943199999999997</v>
       </c>
       <c r="D95">
-        <v>-3.7492000000000001</v>
+        <v>24.966799999999999</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C96">
-        <v>7.8731</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D96">
-        <v>80.771799999999999</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C97">
-        <v>60.1282</v>
+        <v>43.942399999999999</v>
       </c>
       <c r="D97">
-        <v>18.6435</v>
+        <v>12.457800000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C98">
-        <v>46.818199999999997</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D98">
-        <v>8.2274999999999991</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C99">
-        <v>23.697808999999999</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D99">
-        <v>120.96051799999999</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C100">
-        <v>13.730579000000001</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D100">
-        <v>100.523884</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C101">
-        <v>55.378100000000003</v>
+        <v>7.8731</v>
       </c>
       <c r="D101">
-        <v>-3.4359999999999999</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102">
+        <v>60.1282</v>
+      </c>
+      <c r="D102">
+        <v>18.6435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="D103">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D104">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D105">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D106">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>47</v>
       </c>
-      <c r="C102">
+      <c r="C107">
         <v>23.424099999999999</v>
       </c>
-      <c r="D102">
+      <c r="D107">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D103">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" t="s">
-        <v>30</v>
-      </c>
-      <c r="C104">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D104">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D105">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D106">
-        <v>-119.4179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" t="s">
-        <v>30</v>
-      </c>
-      <c r="C107">
-        <v>41.878100000000003</v>
-      </c>
-      <c r="D107">
-        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
       </c>
       <c r="C108">
-        <v>40.744999999999997</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D108">
-        <v>-123.8695</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
       </c>
       <c r="C109">
-        <v>40.633099999999999</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D109">
-        <v>-89.398499999999999</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
       </c>
       <c r="C110">
-        <v>41.256500000000003</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D110">
-        <v>-95.9345</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
       </c>
       <c r="C111">
-        <v>41.256500000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D111">
-        <v>-95.9345</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
       </c>
       <c r="C112">
-        <v>33.7879</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D112">
-        <v>-117.8531</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
       <c r="C113">
-        <v>34.052199999999999</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D113">
-        <v>-118.2437</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>30</v>
       </c>
       <c r="C114">
-        <v>29.387799999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D114">
-        <v>-98.620500000000007</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B115" t="s">
         <v>30</v>
       </c>
       <c r="C115">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D115">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B116" t="s">
         <v>30</v>
       </c>
       <c r="C116">
-        <v>43.073099999999997</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D116">
-        <v>-89.401200000000003</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B117" t="s">
         <v>30</v>
       </c>
       <c r="C117">
-        <v>38.474699999999999</v>
+        <v>33.7879</v>
       </c>
       <c r="D117">
-        <v>-121.35420000000001</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
         <v>30</v>
       </c>
       <c r="C118">
-        <v>29.424099999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D118">
-        <v>-98.493600000000001</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
       </c>
       <c r="C119">
-        <v>36.576099999999997</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D119">
-        <v>-120.9876</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
       </c>
       <c r="C120">
-        <v>32.715699999999998</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D120">
-        <v>-117.1611</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
         <v>30</v>
       </c>
       <c r="C121">
-        <v>37.354100000000003</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D121">
-        <v>-121.9552</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
         <v>30</v>
       </c>
       <c r="C122">
-        <v>47.606200000000001</v>
+        <v>45.505099999999999</v>
       </c>
       <c r="D122">
-        <v>-122.3321</v>
+        <v>-122.675</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s">
         <v>30</v>
       </c>
       <c r="C123">
-        <v>33.4255</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D123">
-        <v>-111.94</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
         <v>30</v>
       </c>
       <c r="C124">
-        <v>38.272100000000002</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D124">
-        <v>-121.93989999999999</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
         <v>30</v>
       </c>
       <c r="C125">
-        <v>38.272100000000002</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D125">
-        <v>-121.93989999999999</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B126" t="s">
         <v>30</v>
       </c>
       <c r="C126">
-        <v>47.608013</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D126">
-        <v>-122.335167</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B127" t="s">
         <v>30</v>
       </c>
       <c r="C127">
-        <v>37.090200000000003</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D127">
-        <v>-95.712900000000005</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C128">
-        <v>14.058299999999999</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D128">
-        <v>108.27719999999999</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>48.033000000000001</v>
+      </c>
+      <c r="D129">
+        <v>-121.8339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>33.4255</v>
+      </c>
+      <c r="D130">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D131">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D132">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133">
+        <v>47.608013</v>
+      </c>
+      <c r="D133">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D134">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D135">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>90</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B136" t="s">
         <v>89</v>
       </c>
-      <c r="C129">
+      <c r="C136">
         <v>35.4437</v>
       </c>
-      <c r="D129">
+      <c r="D136">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D128">
-    <sortCondition ref="B5:B128"/>
-    <sortCondition ref="A5:A128"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D135">
+    <sortCondition ref="B5:B135"/>
+    <sortCondition ref="A5:A135"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB01F6-B26D-4F16-A5EB-2672ED409270}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B16C10-3E7F-4C33-AB25-94273D7CCD79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="252" windowWidth="12600" windowHeight="11772" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="8160" yWindow="852" windowWidth="13500" windowHeight="9084" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
   <si>
     <t>State</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
   </si>
 </sst>
 </file>
@@ -808,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,90 +873,90 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C4">
-        <v>-30.0002</v>
+        <v>40.069099999999999</v>
       </c>
       <c r="D4">
-        <v>136.20920000000001</v>
+        <v>45.038200000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5">
-        <v>-31.2532</v>
+        <v>-30.0002</v>
       </c>
       <c r="D5">
-        <v>146.9211</v>
+        <v>136.20920000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-20.9176</v>
+        <v>-31.2532</v>
       </c>
       <c r="D6">
-        <v>142.7028</v>
+        <v>146.9211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>-37.471299999999999</v>
+        <v>-20.9176</v>
       </c>
       <c r="D7">
-        <v>144.7852</v>
+        <v>142.7028</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>-27.672799999999999</v>
+        <v>-37.471299999999999</v>
       </c>
       <c r="D8">
-        <v>121.6283</v>
+        <v>144.7852</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-25.2744</v>
+        <v>-27.672799999999999</v>
       </c>
       <c r="D9">
-        <v>133.77510000000001</v>
+        <v>121.6283</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -954,1592 +969,1650 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>47.516199999999998</v>
+        <v>-25.2744</v>
       </c>
       <c r="D11">
-        <v>14.5501</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C12">
-        <v>40.143099999999997</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D12">
-        <v>47.576900000000002</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>26.066700000000001</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D13">
-        <v>50.557699999999997</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>53.709800000000001</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D14">
-        <v>27.953399999999998</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C15">
-        <v>50.503900000000002</v>
+        <v>53.709800000000001</v>
       </c>
       <c r="D15">
-        <v>4.4699</v>
+        <v>27.953399999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C16">
-        <v>-14.234999999999999</v>
+        <v>50.503900000000002</v>
       </c>
       <c r="D16">
-        <v>-51.9253</v>
+        <v>4.4699</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D17">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>12.5657</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D18">
-        <v>-127.6476</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19">
-        <v>51.253799999999998</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D19">
-        <v>-85.3232</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>42.984900000000003</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D20">
-        <v>-81.2453</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21">
-        <v>43.653199999999998</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D21">
-        <v>-79.383200000000002</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22">
-        <v>45.5017</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D22">
-        <v>-73.567300000000003</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>31.863889</v>
+        <v>45.5017</v>
       </c>
       <c r="D23">
-        <v>117.280833</v>
+        <v>-73.567300000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>39.928818999999997</v>
+        <v>31.863889</v>
       </c>
       <c r="D24">
-        <v>116.388869</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>29.562778000000002</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D25">
-        <v>106.552778</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>26.061388999999998</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D26">
-        <v>119.306111</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>36.057006000000001</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D27">
-        <v>103.839868</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>23.116667</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D28">
-        <v>113.25</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>22.816666999999999</v>
+        <v>23.116667</v>
       </c>
       <c r="D29">
-        <v>108.316667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>26.583333</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D30">
-        <v>106.716667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>20.045832999999998</v>
+        <v>26.583333</v>
       </c>
       <c r="D31">
-        <v>110.341667</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>38.041389000000002</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D32">
-        <v>114.478611</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>45.75</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D33">
-        <v>126.65</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>34.683610999999999</v>
+        <v>45.75</v>
       </c>
       <c r="D34">
-        <v>113.5325</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>30.583333</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D35">
-        <v>114.266667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>28.2</v>
+        <v>30.583333</v>
       </c>
       <c r="D36">
-        <v>112.966667</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>40.810555999999998</v>
+        <v>28.2</v>
       </c>
       <c r="D37">
-        <v>111.65222199999999</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>32.061667</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D38">
-        <v>118.777778</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>28.655757999999999</v>
+        <v>32.061667</v>
       </c>
       <c r="D39">
-        <v>115.90504900000001</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>43.88</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D40">
-        <v>125.322778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>41.792222000000002</v>
+        <v>43.88</v>
       </c>
       <c r="D41">
-        <v>123.432778</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>38.468055999999997</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D42">
-        <v>106.273056</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>36.625540999999998</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D43">
-        <v>101.75739</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>34.258333</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D44">
-        <v>108.928611</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>36.668332999999997</v>
+        <v>34.258333</v>
       </c>
       <c r="D45">
-        <v>116.99722199999999</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>31.222221999999999</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D46">
-        <v>121.458056</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>37.869444000000001</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D47">
-        <v>112.560278</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>30.666667</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D48">
-        <v>104.066667</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>39.142221999999997</v>
+        <v>30.666667</v>
       </c>
       <c r="D49">
-        <v>117.17666699999999</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>29.65</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D50">
-        <v>91.1</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>43.807347</v>
+        <v>29.65</v>
       </c>
       <c r="D51">
-        <v>87.630505999999997</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>25.038889000000001</v>
+        <v>43.807347</v>
       </c>
       <c r="D52">
-        <v>102.718333</v>
+        <v>87.630505999999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D53">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
         <v>30.29365</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54">
-        <v>4.5709</v>
-      </c>
-      <c r="D54">
-        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C55">
-        <v>45.1</v>
+        <v>4.5709</v>
       </c>
       <c r="D55">
-        <v>15.2</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C56">
-        <v>56.2639</v>
+        <v>45.1</v>
       </c>
       <c r="D56">
-        <v>9.5017999999999994</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C57">
-        <v>26.820599999999999</v>
+        <v>49.817500000000003</v>
       </c>
       <c r="D57">
-        <v>30.802499999999998</v>
+        <v>15.473000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58">
-        <v>58.595300000000002</v>
+        <v>56.2639</v>
       </c>
       <c r="D58">
-        <v>25.0136</v>
+        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="C59">
-        <v>61.924100000000003</v>
+        <v>18.735700000000001</v>
       </c>
       <c r="D59">
-        <v>25.748200000000001</v>
+        <v>-70.162700000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C60">
-        <v>46.227600000000002</v>
+        <v>-1.8311999999999999</v>
       </c>
       <c r="D60">
-        <v>2.2136999999999998</v>
+        <v>-78.183400000000006</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C61">
-        <v>42.315399999999997</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D61">
-        <v>43.356900000000003</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C62">
-        <v>51.165700000000001</v>
+        <v>58.595300000000002</v>
       </c>
       <c r="D62">
-        <v>10.451499999999999</v>
+        <v>25.0136</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>59</v>
-      </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>48.790399999999998</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D63">
-        <v>11.4979</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C64">
-        <v>39.074199999999998</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D64">
-        <v>21.824300000000001</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C65">
-        <v>22.302710999999999</v>
+        <v>42.315399999999997</v>
       </c>
       <c r="D65">
-        <v>114.177216</v>
+        <v>43.356900000000003</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>20.593699999999998</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D66">
-        <v>78.962900000000005</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C67">
-        <v>32.427900000000001</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D67">
-        <v>53.688000000000002</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C68">
-        <v>33.223199999999999</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D68">
-        <v>43.679299999999998</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>31.046099999999999</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D69">
-        <v>34.851599999999998</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>100</v>
-      </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C70">
-        <v>31.046099999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D70">
-        <v>34.851599999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C71">
-        <v>41.871899999999997</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D71">
-        <v>12.567399999999999</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>7.54</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D72">
-        <v>-5.5471000000000004</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C73">
-        <v>35.685000000000002</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D73">
-        <v>139.75138899999999</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C74">
-        <v>29.311699999999998</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D74">
-        <v>47.4818</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>64.963099999999997</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D75">
-        <v>-19.020800000000001</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>53.142400000000002</v>
+        <v>7.54</v>
       </c>
       <c r="D76">
-        <v>7.6920999999999999</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C77">
-        <v>33.854700000000001</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D77">
-        <v>35.862299999999998</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C78">
-        <v>55.169400000000003</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D78">
-        <v>23.8813</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C79">
-        <v>49.815300000000001</v>
+        <v>64.963099999999997</v>
       </c>
       <c r="D79">
-        <v>6.1295999999999999</v>
+        <v>-19.020800000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C80">
-        <v>22.200559999999999</v>
+        <v>53.142400000000002</v>
       </c>
       <c r="D80">
-        <v>113.54611</v>
+        <v>7.6920999999999999</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C81">
-        <v>4.2104999999999997</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D81">
-        <v>101.97580000000001</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C82">
-        <v>23.634499999999999</v>
+        <v>55.169400000000003</v>
       </c>
       <c r="D82">
-        <v>-102.5528</v>
+        <v>23.8813</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83">
-        <v>43.738399999999999</v>
+        <v>49.815300000000001</v>
       </c>
       <c r="D83">
-        <v>7.4245999999999999</v>
+        <v>6.1295999999999999</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C84">
-        <v>28.3949</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D84">
-        <v>84.123999999999995</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C85">
-        <v>-40.900599999999997</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D85">
-        <v>174.886</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C86">
-        <v>52.132599999999996</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D86">
-        <v>5.2912999999999997</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C87">
-        <v>9.0820000000000007</v>
+        <v>43.738399999999999</v>
       </c>
       <c r="D87">
-        <v>8.6753</v>
+        <v>7.4245999999999999</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C88">
-        <v>60.472000000000001</v>
+        <v>28.3949</v>
       </c>
       <c r="D88">
-        <v>8.4688999999999997</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C89">
-        <v>54.787700000000001</v>
+        <v>-40.900599999999997</v>
       </c>
       <c r="D89">
-        <v>-6.4923000000000002</v>
+        <v>174.886</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C90">
-        <v>41.608600000000003</v>
+        <v>52.132599999999996</v>
       </c>
       <c r="D90">
-        <v>21.7453</v>
+        <v>5.2912999999999997</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C91">
-        <v>21.473500000000001</v>
+        <v>9.0820000000000007</v>
       </c>
       <c r="D91">
-        <v>55.9754</v>
+        <v>8.6753</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C92">
-        <v>30.375299999999999</v>
+        <v>60.472000000000001</v>
       </c>
       <c r="D92">
-        <v>69.345100000000002</v>
+        <v>8.4688999999999997</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C93">
-        <v>12.8797</v>
+        <v>54.787700000000001</v>
       </c>
       <c r="D93">
-        <v>121.774</v>
+        <v>-6.4923000000000002</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C94">
-        <v>25.354800000000001</v>
+        <v>41.608600000000003</v>
       </c>
       <c r="D94">
-        <v>51.183900000000001</v>
+        <v>21.7453</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C95">
-        <v>45.943199999999997</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="D95">
-        <v>24.966799999999999</v>
+        <v>55.9754</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C96">
-        <v>61.524000000000001</v>
+        <v>30.375299999999999</v>
       </c>
       <c r="D96">
-        <v>105.3188</v>
+        <v>69.345100000000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C97">
-        <v>43.942399999999999</v>
+        <v>12.8797</v>
       </c>
       <c r="D97">
-        <v>12.457800000000001</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C98">
-        <v>1.3521000000000001</v>
+        <v>25.354800000000001</v>
       </c>
       <c r="D98">
-        <v>103.8198</v>
+        <v>51.183900000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C99">
-        <v>37.598500000000001</v>
+        <v>45.943199999999997</v>
       </c>
       <c r="D99">
-        <v>126.9783</v>
+        <v>24.966799999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C100">
-        <v>40.463700000000003</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D100">
-        <v>-3.7492000000000001</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C101">
-        <v>7.8731</v>
+        <v>43.942399999999999</v>
       </c>
       <c r="D101">
-        <v>80.771799999999999</v>
+        <v>12.457800000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C102">
-        <v>60.1282</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D102">
-        <v>18.6435</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="C103">
-        <v>46.818199999999997</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D103">
-        <v>8.2274999999999991</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C104">
-        <v>23.697808999999999</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D104">
-        <v>120.96051799999999</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C105">
-        <v>13.730579000000001</v>
+        <v>7.8731</v>
       </c>
       <c r="D105">
-        <v>100.523884</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C106">
-        <v>55.378100000000003</v>
+        <v>60.1282</v>
       </c>
       <c r="D106">
-        <v>-3.4359999999999999</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="D107">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D108">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D109">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D110">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
         <v>47</v>
       </c>
-      <c r="C107">
+      <c r="C111">
         <v>23.424099999999999</v>
       </c>
-      <c r="D107">
+      <c r="D111">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D108">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" t="s">
-        <v>30</v>
-      </c>
-      <c r="C109">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D109">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>75</v>
-      </c>
-      <c r="B110" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D110">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>58</v>
-      </c>
-      <c r="B111" t="s">
-        <v>30</v>
-      </c>
-      <c r="C111">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D111">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
       </c>
       <c r="C112">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D112">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
       <c r="C113">
-        <v>40.744999999999997</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D113">
-        <v>-123.8695</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
         <v>30</v>
       </c>
       <c r="C114">
-        <v>40.633099999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D114">
-        <v>-89.398499999999999</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
         <v>30</v>
       </c>
       <c r="C115">
-        <v>41.256500000000003</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D115">
-        <v>-95.9345</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B116" t="s">
         <v>30</v>
       </c>
       <c r="C116">
-        <v>41.256500000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D116">
-        <v>-95.9345</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
         <v>30</v>
       </c>
       <c r="C117">
-        <v>33.7879</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D117">
-        <v>-117.8531</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
         <v>30</v>
       </c>
       <c r="C118">
-        <v>34.052199999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D118">
-        <v>-118.2437</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
       </c>
       <c r="C119">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D119">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
       </c>
       <c r="C120">
-        <v>29.387799999999999</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D120">
-        <v>-98.620500000000007</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B121" t="s">
         <v>30</v>
       </c>
       <c r="C121">
-        <v>43.073099999999997</v>
+        <v>33.7879</v>
       </c>
       <c r="D121">
-        <v>-89.401200000000003</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
         <v>30</v>
       </c>
       <c r="C122">
-        <v>45.505099999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D122">
-        <v>-122.675</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
         <v>30</v>
       </c>
       <c r="C123">
-        <v>38.474699999999999</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D123">
-        <v>-121.35420000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
         <v>30</v>
       </c>
       <c r="C124">
-        <v>29.424099999999999</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D124">
-        <v>-98.493600000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
         <v>30</v>
       </c>
       <c r="C125">
-        <v>36.576099999999997</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D125">
-        <v>-120.9876</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
         <v>30</v>
       </c>
       <c r="C126">
-        <v>32.715699999999998</v>
+        <v>45.505099999999999</v>
       </c>
       <c r="D126">
-        <v>-117.1611</v>
+        <v>-122.675</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
         <v>30</v>
       </c>
       <c r="C127">
-        <v>37.354100000000003</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="D127">
-        <v>-121.9552</v>
+        <v>-71.412800000000004</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B128" t="s">
         <v>30</v>
       </c>
       <c r="C128">
-        <v>47.606200000000001</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D128">
-        <v>-122.3321</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
       </c>
       <c r="C129">
-        <v>48.033000000000001</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D129">
-        <v>-121.8339</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
         <v>30</v>
       </c>
       <c r="C130">
-        <v>33.4255</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D130">
-        <v>-111.94</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
         <v>30</v>
       </c>
       <c r="C131">
-        <v>38.272100000000002</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D131">
-        <v>-121.93989999999999</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
       </c>
       <c r="C132">
-        <v>38.272100000000002</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D132">
-        <v>-121.93989999999999</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
         <v>30</v>
       </c>
       <c r="C133">
-        <v>47.608013</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="D133">
-        <v>-122.335167</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
         <v>30</v>
       </c>
       <c r="C134">
-        <v>37.090200000000003</v>
+        <v>48.033000000000001</v>
       </c>
       <c r="D134">
-        <v>-95.712900000000005</v>
+        <v>-121.8339</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>81</v>
+      </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C135">
-        <v>14.058299999999999</v>
+        <v>33.4255</v>
       </c>
       <c r="D135">
-        <v>108.27719999999999</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D136">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D137">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138">
+        <v>47.608013</v>
+      </c>
+      <c r="D138">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D139">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D140">
+        <v>108.27719999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>90</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B141" t="s">
         <v>89</v>
       </c>
-      <c r="C136">
+      <c r="C141">
         <v>35.4437</v>
       </c>
-      <c r="D136">
+      <c r="D141">
         <v>139.63800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D135">
-    <sortCondition ref="B5:B135"/>
-    <sortCondition ref="A5:A135"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:D140">
+    <sortCondition ref="B6:B140"/>
+    <sortCondition ref="A6:A140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B16C10-3E7F-4C33-AB25-94273D7CCD79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4300E7E0-85A2-4BB4-9935-B961A35E3E09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="852" windowWidth="13500" windowHeight="9084" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="744" yWindow="168" windowWidth="11484" windowHeight="12156" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>State</t>
   </si>
@@ -472,6 +472,60 @@
   </si>
   <si>
     <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>King County, WA</t>
+  </si>
+  <si>
+    <t>Cook County, IL</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Grafton County, NH</t>
+  </si>
+  <si>
+    <t>Hillsborough, FL</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>Placer County, CA</t>
+  </si>
+  <si>
+    <t>San Mateo, CA</t>
+  </si>
+  <si>
+    <t>Sarasota, FL</t>
+  </si>
+  <si>
+    <t>Sonoma County, CA</t>
+  </si>
+  <si>
+    <t>Umatilla, OR</t>
   </si>
 </sst>
 </file>
@@ -823,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,241 +928,238 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>42.506300000000003</v>
+      </c>
+      <c r="D4">
+        <v>1.5218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>142</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>40.069099999999999</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>45.038200000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>-30.0002</v>
-      </c>
-      <c r="D5">
-        <v>136.20920000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-31.2532</v>
+        <v>-25.2744</v>
       </c>
       <c r="D6">
-        <v>146.9211</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>-20.9176</v>
+        <v>-31.2532</v>
       </c>
       <c r="D7">
-        <v>142.7028</v>
+        <v>146.9211</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>-37.471299999999999</v>
+        <v>-20.9176</v>
       </c>
       <c r="D8">
-        <v>144.7852</v>
+        <v>142.7028</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-27.672799999999999</v>
+        <v>-30.0002</v>
       </c>
       <c r="D9">
-        <v>121.6283</v>
+        <v>136.20920000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10">
-        <v>-25.2744</v>
+        <v>-37.471299999999999</v>
       </c>
       <c r="D10">
-        <v>133.77510000000001</v>
+        <v>144.7852</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11">
-        <v>-25.2744</v>
+        <v>-27.672799999999999</v>
       </c>
       <c r="D11">
-        <v>133.77510000000001</v>
+        <v>121.6283</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>47.516199999999998</v>
+        <v>-41.454500000000003</v>
       </c>
       <c r="D12">
-        <v>14.5501</v>
+        <v>145.97069999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>40.143099999999997</v>
+        <v>-25.2744</v>
       </c>
       <c r="D13">
-        <v>47.576900000000002</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14">
-        <v>26.066700000000001</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D14">
-        <v>50.557699999999997</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C15">
-        <v>53.709800000000001</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D15">
-        <v>27.953399999999998</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C16">
-        <v>50.503900000000002</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D16">
-        <v>4.4699</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="C17">
-        <v>-14.234999999999999</v>
+        <v>53.709800000000001</v>
       </c>
       <c r="D17">
-        <v>-51.9253</v>
+        <v>27.953399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>50.503900000000002</v>
+      </c>
+      <c r="D18">
+        <v>4.4699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D19">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>12.5657</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D19">
-        <v>-127.6476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>51.253799999999998</v>
-      </c>
-      <c r="D20">
-        <v>-85.3232</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21">
-        <v>42.984900000000003</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D21">
-        <v>-81.2453</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22">
-        <v>43.653199999999998</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D22">
-        <v>-79.383200000000002</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,1492 +1178,1726 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>31.863889</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D24">
-        <v>117.280833</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>39.928818999999997</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D25">
-        <v>116.388869</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>29.562778000000002</v>
+        <v>31.863889</v>
       </c>
       <c r="D26">
-        <v>106.552778</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>26.061388999999998</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D27">
-        <v>119.306111</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>36.057006000000001</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D28">
-        <v>103.839868</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>23.116667</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D29">
-        <v>113.25</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>22.816666999999999</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D30">
-        <v>108.316667</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>26.583333</v>
+        <v>23.116667</v>
       </c>
       <c r="D31">
-        <v>106.716667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>20.045832999999998</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D32">
-        <v>110.341667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>38.041389000000002</v>
+        <v>26.583333</v>
       </c>
       <c r="D33">
-        <v>114.478611</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>45.75</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D34">
-        <v>126.65</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>34.683610999999999</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D35">
-        <v>113.5325</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>30.583333</v>
+        <v>45.75</v>
       </c>
       <c r="D36">
-        <v>114.266667</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>28.2</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D37">
-        <v>112.966667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>40.810555999999998</v>
+        <v>30.583333</v>
       </c>
       <c r="D38">
-        <v>111.65222199999999</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>32.061667</v>
+        <v>28.2</v>
       </c>
       <c r="D39">
-        <v>118.777778</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>28.655757999999999</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D40">
-        <v>115.90504900000001</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>43.88</v>
+        <v>32.061667</v>
       </c>
       <c r="D41">
-        <v>125.322778</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>41.792222000000002</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D42">
-        <v>123.432778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>38.468055999999997</v>
+        <v>43.88</v>
       </c>
       <c r="D43">
-        <v>106.273056</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>36.625540999999998</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D44">
-        <v>101.75739</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>34.258333</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D45">
-        <v>108.928611</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>36.668332999999997</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D46">
-        <v>116.99722199999999</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>31.222221999999999</v>
+        <v>34.258333</v>
       </c>
       <c r="D47">
-        <v>121.458056</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>37.869444000000001</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D48">
-        <v>112.560278</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>30.666667</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D49">
-        <v>104.066667</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>39.142221999999997</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D50">
-        <v>117.17666699999999</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>29.65</v>
+        <v>30.666667</v>
       </c>
       <c r="D51">
-        <v>91.1</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>43.807347</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D52">
-        <v>87.630505999999997</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>25.038889000000001</v>
+        <v>29.65</v>
       </c>
       <c r="D53">
-        <v>102.718333</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>43.807347</v>
+      </c>
+      <c r="D54">
+        <v>87.630505999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D55">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>17</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
         <v>30.29365</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55">
-        <v>4.5709</v>
-      </c>
-      <c r="D55">
-        <v>-74.297300000000007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56">
-        <v>45.1</v>
-      </c>
-      <c r="D56">
-        <v>15.2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C57">
-        <v>49.817500000000003</v>
+        <v>4.5709</v>
       </c>
       <c r="D57">
-        <v>15.473000000000001</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C58">
-        <v>56.2639</v>
+        <v>45.1</v>
       </c>
       <c r="D58">
-        <v>9.5017999999999994</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59">
-        <v>18.735700000000001</v>
+        <v>49.817500000000003</v>
       </c>
       <c r="D59">
-        <v>-70.162700000000001</v>
+        <v>15.473000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C60">
-        <v>-1.8311999999999999</v>
+        <v>56.2639</v>
       </c>
       <c r="D60">
-        <v>-78.183400000000006</v>
+        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C61">
-        <v>26.820599999999999</v>
+        <v>18.735700000000001</v>
       </c>
       <c r="D61">
-        <v>30.802499999999998</v>
+        <v>-70.162700000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C62">
-        <v>58.595300000000002</v>
+        <v>-1.8311999999999999</v>
       </c>
       <c r="D62">
-        <v>25.0136</v>
+        <v>-78.183400000000006</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C63">
-        <v>61.924100000000003</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D63">
-        <v>25.748200000000001</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C64">
-        <v>46.227600000000002</v>
+        <v>58.595300000000002</v>
       </c>
       <c r="D64">
-        <v>2.2136999999999998</v>
+        <v>25.0136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>42.315399999999997</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D65">
-        <v>43.356900000000003</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>46.227600000000002</v>
+      </c>
+      <c r="D66">
+        <v>2.2136999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67">
+        <v>42.315399999999997</v>
+      </c>
+      <c r="D67">
+        <v>43.356900000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="C66">
-        <v>51.165700000000001</v>
-      </c>
-      <c r="D66">
-        <v>10.451499999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67">
+      <c r="C68">
         <v>48.790399999999998</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>11.4979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68">
-        <v>39.074199999999998</v>
-      </c>
-      <c r="D68">
-        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C69">
-        <v>22.302710999999999</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D69">
-        <v>114.177216</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C70">
-        <v>20.593699999999998</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D70">
-        <v>78.962900000000005</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>32.427900000000001</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D71">
-        <v>53.688000000000002</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C72">
-        <v>33.223199999999999</v>
+        <v>64.963099999999997</v>
       </c>
       <c r="D72">
-        <v>43.679299999999998</v>
+        <v>-19.020800000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C73">
-        <v>31.046099999999999</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D73">
-        <v>34.851599999999998</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>100</v>
-      </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C74">
-        <v>31.046099999999999</v>
+        <v>-0.7893</v>
       </c>
       <c r="D74">
-        <v>34.851599999999998</v>
+        <v>113.9213</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C75">
-        <v>41.871899999999997</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D75">
-        <v>12.567399999999999</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C76">
-        <v>7.54</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D76">
-        <v>-5.5471000000000004</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C77">
-        <v>35.685000000000002</v>
+        <v>53.142400000000002</v>
       </c>
       <c r="D77">
-        <v>139.75138899999999</v>
+        <v>7.6920999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C78">
-        <v>29.311699999999998</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D78">
-        <v>47.4818</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C79">
-        <v>64.963099999999997</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D79">
-        <v>-19.020800000000001</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C80">
-        <v>53.142400000000002</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D80">
-        <v>7.6920999999999999</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C81">
-        <v>33.854700000000001</v>
+        <v>7.54</v>
       </c>
       <c r="D81">
-        <v>35.862299999999998</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C82">
-        <v>55.169400000000003</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D82">
-        <v>23.8813</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C83">
-        <v>49.815300000000001</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D83">
-        <v>6.1295999999999999</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="C84">
-        <v>22.200559999999999</v>
+        <v>56.879600000000003</v>
       </c>
       <c r="D84">
-        <v>113.54611</v>
+        <v>24.603200000000001</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C85">
-        <v>4.2104999999999997</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D85">
-        <v>101.97580000000001</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C86">
-        <v>23.634499999999999</v>
+        <v>55.169400000000003</v>
       </c>
       <c r="D86">
-        <v>-102.5528</v>
+        <v>23.8813</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87">
-        <v>43.738399999999999</v>
+        <v>49.815300000000001</v>
       </c>
       <c r="D87">
-        <v>7.4245999999999999</v>
+        <v>6.1295999999999999</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C88">
-        <v>28.3949</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D88">
-        <v>84.123999999999995</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C89">
-        <v>-40.900599999999997</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D89">
-        <v>174.886</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C90">
-        <v>52.132599999999996</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D90">
-        <v>5.2912999999999997</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C91">
-        <v>9.0820000000000007</v>
+        <v>43.738399999999999</v>
       </c>
       <c r="D91">
-        <v>8.6753</v>
+        <v>7.4245999999999999</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C92">
-        <v>60.472000000000001</v>
+        <v>31.791699999999999</v>
       </c>
       <c r="D92">
-        <v>8.4688999999999997</v>
+        <v>-7.0926</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C93">
-        <v>54.787700000000001</v>
+        <v>28.3949</v>
       </c>
       <c r="D93">
-        <v>-6.4923000000000002</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C94">
-        <v>41.608600000000003</v>
+        <v>52.132599999999996</v>
       </c>
       <c r="D94">
-        <v>21.7453</v>
+        <v>5.2912999999999997</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C95">
-        <v>21.473500000000001</v>
+        <v>-40.900599999999997</v>
       </c>
       <c r="D95">
-        <v>55.9754</v>
+        <v>174.886</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C96">
-        <v>30.375299999999999</v>
+        <v>9.0820000000000007</v>
       </c>
       <c r="D96">
-        <v>69.345100000000002</v>
+        <v>8.6753</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C97">
-        <v>12.8797</v>
+        <v>54.787700000000001</v>
       </c>
       <c r="D97">
-        <v>121.774</v>
+        <v>-6.4923000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C98">
-        <v>25.354800000000001</v>
+        <v>41.608600000000003</v>
       </c>
       <c r="D98">
-        <v>51.183900000000001</v>
+        <v>21.7453</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99">
-        <v>45.943199999999997</v>
+        <v>60.472000000000001</v>
       </c>
       <c r="D99">
-        <v>24.966799999999999</v>
+        <v>8.4688999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C100">
-        <v>61.524000000000001</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="D100">
-        <v>105.3188</v>
+        <v>55.9754</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C101">
-        <v>43.942399999999999</v>
+        <v>35.4437</v>
       </c>
       <c r="D101">
-        <v>12.457800000000001</v>
+        <v>139.63800000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C102">
-        <v>1.3521000000000001</v>
+        <v>30.375299999999999</v>
       </c>
       <c r="D102">
-        <v>103.8198</v>
+        <v>69.345100000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C103">
-        <v>37.598500000000001</v>
+        <v>12.8797</v>
       </c>
       <c r="D103">
-        <v>126.9783</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="C104">
-        <v>40.463700000000003</v>
+        <v>39.399900000000002</v>
       </c>
       <c r="D104">
-        <v>-3.7492000000000001</v>
+        <v>8.2245000000000008</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C105">
-        <v>7.8731</v>
+        <v>25.354800000000001</v>
       </c>
       <c r="D105">
-        <v>80.771799999999999</v>
+        <v>51.183900000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C106">
-        <v>60.1282</v>
+        <v>45.943199999999997</v>
       </c>
       <c r="D106">
-        <v>18.6435</v>
+        <v>24.966799999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C107">
-        <v>46.818199999999997</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D107">
-        <v>8.2274999999999991</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C108">
-        <v>23.697808999999999</v>
+        <v>43.942399999999999</v>
       </c>
       <c r="D108">
-        <v>120.96051799999999</v>
+        <v>12.457800000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="C109">
-        <v>13.730579000000001</v>
+        <v>23.885899999999999</v>
       </c>
       <c r="D109">
-        <v>100.523884</v>
+        <v>45.0792</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C110">
-        <v>55.378100000000003</v>
+        <v>14.497400000000001</v>
       </c>
       <c r="D110">
-        <v>-3.4359999999999999</v>
+        <v>-14.452400000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111">
+        <v>1.3521000000000001</v>
+      </c>
+      <c r="D111">
+        <v>103.8198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112">
+        <v>37.598500000000001</v>
+      </c>
+      <c r="D112">
+        <v>126.9783</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="D113">
+        <v>-3.7492000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114">
+        <v>7.8731</v>
+      </c>
+      <c r="D114">
+        <v>80.771799999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115">
+        <v>60.1282</v>
+      </c>
+      <c r="D115">
+        <v>18.6435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="D116">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D117">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D118">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D119">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
         <v>47</v>
       </c>
-      <c r="C111">
+      <c r="C120">
         <v>23.424099999999999</v>
       </c>
-      <c r="D111">
+      <c r="D120">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D112">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" t="s">
-        <v>30</v>
-      </c>
-      <c r="C113">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D113">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>75</v>
-      </c>
-      <c r="B114" t="s">
-        <v>30</v>
-      </c>
-      <c r="C114">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D114">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>58</v>
-      </c>
-      <c r="B115" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D115">
-        <v>-119.4179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116">
-        <v>41.878100000000003</v>
-      </c>
-      <c r="D116">
-        <v>-87.629800000000003</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>101</v>
-      </c>
-      <c r="B117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117">
-        <v>40.744999999999997</v>
-      </c>
-      <c r="D117">
-        <v>-123.8695</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B118" t="s">
-        <v>30</v>
-      </c>
-      <c r="C118">
-        <v>40.633099999999999</v>
-      </c>
-      <c r="D118">
-        <v>-89.398499999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119">
-        <v>41.256500000000003</v>
-      </c>
-      <c r="D119">
-        <v>-95.9345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>105</v>
-      </c>
-      <c r="B120" t="s">
-        <v>30</v>
-      </c>
-      <c r="C120">
-        <v>41.256500000000003</v>
-      </c>
-      <c r="D120">
-        <v>-95.9345</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
         <v>30</v>
       </c>
       <c r="C121">
-        <v>33.7879</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D121">
-        <v>-117.8531</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
         <v>30</v>
       </c>
       <c r="C122">
-        <v>34.052199999999999</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D122">
-        <v>-118.2437</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
         <v>30</v>
       </c>
       <c r="C123">
-        <v>29.387799999999999</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D123">
-        <v>-98.620500000000007</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
         <v>30</v>
       </c>
       <c r="C124">
-        <v>29.387799999999999</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D124">
-        <v>-98.620500000000007</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B125" t="s">
         <v>30</v>
       </c>
       <c r="C125">
-        <v>43.073099999999997</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D125">
-        <v>-89.401200000000003</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
         <v>30</v>
       </c>
       <c r="C126">
-        <v>45.505099999999999</v>
+        <v>41.737699999999997</v>
       </c>
       <c r="D126">
-        <v>-122.675</v>
+        <v>-87.697599999999994</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
         <v>30</v>
       </c>
       <c r="C127">
-        <v>41.823999999999998</v>
+        <v>43.908799999999999</v>
       </c>
       <c r="D127">
-        <v>-71.412800000000004</v>
+        <v>-71.825999999999993</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
         <v>30</v>
       </c>
       <c r="C128">
-        <v>38.474699999999999</v>
+        <v>27.990400000000001</v>
       </c>
       <c r="D128">
-        <v>-121.35420000000001</v>
+        <v>-82.3018</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
       </c>
       <c r="C129">
-        <v>29.424099999999999</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D129">
-        <v>-98.493600000000001</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
         <v>30</v>
       </c>
       <c r="C130">
-        <v>36.576099999999997</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D130">
-        <v>-120.9876</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
         <v>30</v>
       </c>
       <c r="C131">
-        <v>32.715699999999998</v>
+        <v>47.548000000000002</v>
       </c>
       <c r="D131">
-        <v>-117.1611</v>
+        <v>-121.9836</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
       </c>
       <c r="C132">
-        <v>37.354100000000003</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D132">
-        <v>-121.9552</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B133" t="s">
         <v>30</v>
       </c>
       <c r="C133">
-        <v>47.606200000000001</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D133">
-        <v>-122.3321</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="B134" t="s">
         <v>30</v>
       </c>
       <c r="C134">
-        <v>48.033000000000001</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D134">
-        <v>-121.8339</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B135" t="s">
         <v>30</v>
       </c>
       <c r="C135">
-        <v>33.4255</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D135">
-        <v>-111.94</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
       </c>
       <c r="C136">
-        <v>38.272100000000002</v>
+        <v>40.712800000000001</v>
       </c>
       <c r="D136">
-        <v>-121.93989999999999</v>
+        <v>-74.006</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
         <v>30</v>
       </c>
       <c r="C137">
-        <v>38.272100000000002</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D137">
-        <v>-121.93989999999999</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s">
         <v>30</v>
       </c>
       <c r="C138">
-        <v>47.608013</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D138">
-        <v>-122.335167</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B139" t="s">
         <v>30</v>
       </c>
       <c r="C139">
-        <v>37.090200000000003</v>
+        <v>33.7879</v>
       </c>
       <c r="D139">
-        <v>-95.712900000000005</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>160</v>
+      </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C140">
-        <v>14.058299999999999</v>
+        <v>39.0916</v>
       </c>
       <c r="D140">
-        <v>108.27719999999999</v>
+        <v>-120.8039</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C141">
-        <v>35.4437</v>
+        <v>45.505099999999999</v>
       </c>
       <c r="D141">
-        <v>139.63800000000001</v>
+        <v>-122.675</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <v>41.823999999999998</v>
+      </c>
+      <c r="D142">
+        <v>-71.412800000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>38.474699999999999</v>
+      </c>
+      <c r="D143">
+        <v>-121.35420000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144">
+        <v>29.424099999999999</v>
+      </c>
+      <c r="D144">
+        <v>-98.493600000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145">
+        <v>36.576099999999997</v>
+      </c>
+      <c r="D145">
+        <v>-120.9876</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146">
+        <v>32.715699999999998</v>
+      </c>
+      <c r="D146">
+        <v>-117.1611</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147">
+        <v>37.563000000000002</v>
+      </c>
+      <c r="D147">
+        <v>-122.32550000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>37.354100000000003</v>
+      </c>
+      <c r="D148">
+        <v>-121.9552</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>27.336400000000001</v>
+      </c>
+      <c r="D149">
+        <v>-82.530699999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D150">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>139</v>
+      </c>
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151">
+        <v>48.033000000000001</v>
+      </c>
+      <c r="D151">
+        <v>-121.8339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152">
+        <v>38.578000000000003</v>
+      </c>
+      <c r="D152">
+        <v>-122.9888</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153">
+        <v>33.4255</v>
+      </c>
+      <c r="D153">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>102</v>
+      </c>
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D154">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>104</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D155">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156">
+        <v>45.917400000000001</v>
+      </c>
+      <c r="D156">
+        <v>-119.3425</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D157">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158">
+        <v>47.608013</v>
+      </c>
+      <c r="D158">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159">
+        <v>14.058299999999999</v>
+      </c>
+      <c r="D159">
+        <v>108.27719999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:D140">
-    <sortCondition ref="B6:B140"/>
-    <sortCondition ref="A6:A140"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D159">
+    <sortCondition ref="B2:B159"/>
+    <sortCondition ref="A2:A159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4300E7E0-85A2-4BB4-9935-B961A35E3E09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8800190-1268-41E8-BADC-F568254D6C35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="168" windowWidth="11484" windowHeight="12156" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="10872" yWindow="0" windowWidth="11484" windowHeight="12156" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
   <si>
     <t>State</t>
   </si>
@@ -526,6 +526,39 @@
   </si>
   <si>
     <t>Umatilla, OR</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Wake County, NC</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Washington County, OR</t>
+  </si>
+  <si>
+    <t>Maricopa County, AZ</t>
+  </si>
+  <si>
+    <t>Fulton County, GA</t>
+  </si>
+  <si>
+    <t>Berkeley, CA</t>
+  </si>
+  <si>
+    <t>Norfolk County, MA</t>
+  </si>
+  <si>
+    <t>Westchester County, NY</t>
+  </si>
+  <si>
+    <t>Argentina</t>
   </si>
 </sst>
 </file>
@@ -877,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,1965 +972,2107 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>-38.4161</v>
+      </c>
+      <c r="D5">
+        <v>-63.616700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>142</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>40.069099999999999</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>45.038200000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>-25.2744</v>
-      </c>
-      <c r="D6">
-        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>-31.2532</v>
+        <v>-25.2744</v>
       </c>
       <c r="D7">
-        <v>146.9211</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>-20.9176</v>
+        <v>-31.2532</v>
       </c>
       <c r="D8">
-        <v>142.7028</v>
+        <v>146.9211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-30.0002</v>
+        <v>-20.9176</v>
       </c>
       <c r="D9">
-        <v>136.20920000000001</v>
+        <v>142.7028</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10">
-        <v>-37.471299999999999</v>
+        <v>-30.0002</v>
       </c>
       <c r="D10">
-        <v>144.7852</v>
+        <v>136.20920000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11">
-        <v>-27.672799999999999</v>
+        <v>-37.471299999999999</v>
       </c>
       <c r="D11">
-        <v>121.6283</v>
+        <v>144.7852</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12">
-        <v>-41.454500000000003</v>
+        <v>-27.672799999999999</v>
       </c>
       <c r="D12">
-        <v>145.97069999999999</v>
+        <v>121.6283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13">
-        <v>-25.2744</v>
+        <v>-41.454500000000003</v>
       </c>
       <c r="D13">
-        <v>133.77510000000001</v>
+        <v>145.97069999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C14">
-        <v>47.516199999999998</v>
+        <v>-25.2744</v>
       </c>
       <c r="D14">
-        <v>14.5501</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>40.143099999999997</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D15">
-        <v>47.576900000000002</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C16">
-        <v>26.066700000000001</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D16">
-        <v>50.557699999999997</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C17">
-        <v>53.709800000000001</v>
+        <v>26.066700000000001</v>
       </c>
       <c r="D17">
-        <v>27.953399999999998</v>
+        <v>50.557699999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C18">
-        <v>50.503900000000002</v>
+        <v>53.709800000000001</v>
       </c>
       <c r="D18">
-        <v>4.4699</v>
+        <v>27.953399999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C19">
-        <v>-14.234999999999999</v>
+        <v>50.503900000000002</v>
       </c>
       <c r="D19">
-        <v>-51.9253</v>
+        <v>4.4699</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="D20">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>12.5657</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>104.991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>53.726700000000001</v>
-      </c>
-      <c r="D21">
-        <v>-127.6476</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22">
-        <v>42.984900000000003</v>
+        <v>53.726700000000001</v>
       </c>
       <c r="D22">
-        <v>-81.2453</v>
+        <v>-127.6476</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23">
-        <v>45.5017</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D23">
-        <v>-73.567300000000003</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24">
-        <v>51.253799999999998</v>
+        <v>45.5017</v>
       </c>
       <c r="D24">
-        <v>-85.3232</v>
+        <v>-73.567300000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25">
-        <v>43.653199999999998</v>
+        <v>51.253799999999998</v>
       </c>
       <c r="D25">
-        <v>-79.383200000000002</v>
+        <v>-85.3232</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C26">
-        <v>31.863889</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D26">
-        <v>117.280833</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>39.928818999999997</v>
+        <v>31.863889</v>
       </c>
       <c r="D27">
-        <v>116.388869</v>
+        <v>117.280833</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>29.562778000000002</v>
+        <v>39.928818999999997</v>
       </c>
       <c r="D28">
-        <v>106.552778</v>
+        <v>116.388869</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>26.061388999999998</v>
+        <v>29.562778000000002</v>
       </c>
       <c r="D29">
-        <v>119.306111</v>
+        <v>106.552778</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>36.057006000000001</v>
+        <v>26.061388999999998</v>
       </c>
       <c r="D30">
-        <v>103.839868</v>
+        <v>119.306111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>23.116667</v>
+        <v>36.057006000000001</v>
       </c>
       <c r="D31">
-        <v>113.25</v>
+        <v>103.839868</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>22.816666999999999</v>
+        <v>23.116667</v>
       </c>
       <c r="D32">
-        <v>108.316667</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>26.583333</v>
+        <v>22.816666999999999</v>
       </c>
       <c r="D33">
-        <v>106.716667</v>
+        <v>108.316667</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>20.045832999999998</v>
+        <v>26.583333</v>
       </c>
       <c r="D34">
-        <v>110.341667</v>
+        <v>106.716667</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>38.041389000000002</v>
+        <v>20.045832999999998</v>
       </c>
       <c r="D35">
-        <v>114.478611</v>
+        <v>110.341667</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>45.75</v>
+        <v>38.041389000000002</v>
       </c>
       <c r="D36">
-        <v>126.65</v>
+        <v>114.478611</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>34.683610999999999</v>
+        <v>45.75</v>
       </c>
       <c r="D37">
-        <v>113.5325</v>
+        <v>126.65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>30.583333</v>
+        <v>34.683610999999999</v>
       </c>
       <c r="D38">
-        <v>114.266667</v>
+        <v>113.5325</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>28.2</v>
+        <v>30.583333</v>
       </c>
       <c r="D39">
-        <v>112.966667</v>
+        <v>114.266667</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>40.810555999999998</v>
+        <v>28.2</v>
       </c>
       <c r="D40">
-        <v>111.65222199999999</v>
+        <v>112.966667</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>32.061667</v>
+        <v>40.810555999999998</v>
       </c>
       <c r="D41">
-        <v>118.777778</v>
+        <v>111.65222199999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>28.655757999999999</v>
+        <v>32.061667</v>
       </c>
       <c r="D42">
-        <v>115.90504900000001</v>
+        <v>118.777778</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>43.88</v>
+        <v>28.655757999999999</v>
       </c>
       <c r="D43">
-        <v>125.322778</v>
+        <v>115.90504900000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>41.792222000000002</v>
+        <v>43.88</v>
       </c>
       <c r="D44">
-        <v>123.432778</v>
+        <v>125.322778</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>38.468055999999997</v>
+        <v>41.792222000000002</v>
       </c>
       <c r="D45">
-        <v>106.273056</v>
+        <v>123.432778</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>36.625540999999998</v>
+        <v>38.468055999999997</v>
       </c>
       <c r="D46">
-        <v>101.75739</v>
+        <v>106.273056</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>34.258333</v>
+        <v>36.625540999999998</v>
       </c>
       <c r="D47">
-        <v>108.928611</v>
+        <v>101.75739</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>36.668332999999997</v>
+        <v>34.258333</v>
       </c>
       <c r="D48">
-        <v>116.99722199999999</v>
+        <v>108.928611</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>31.222221999999999</v>
+        <v>36.668332999999997</v>
       </c>
       <c r="D49">
-        <v>121.458056</v>
+        <v>116.99722199999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>37.869444000000001</v>
+        <v>31.222221999999999</v>
       </c>
       <c r="D50">
-        <v>112.560278</v>
+        <v>121.458056</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>30.666667</v>
+        <v>37.869444000000001</v>
       </c>
       <c r="D51">
-        <v>104.066667</v>
+        <v>112.560278</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>39.142221999999997</v>
+        <v>30.666667</v>
       </c>
       <c r="D52">
-        <v>117.17666699999999</v>
+        <v>104.066667</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>29.65</v>
+        <v>39.142221999999997</v>
       </c>
       <c r="D53">
-        <v>91.1</v>
+        <v>117.17666699999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>43.807347</v>
+        <v>29.65</v>
       </c>
       <c r="D54">
-        <v>87.630505999999997</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>25.038889000000001</v>
+        <v>43.807347</v>
       </c>
       <c r="D55">
-        <v>102.718333</v>
+        <v>87.630505999999997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56">
+        <v>25.038889000000001</v>
+      </c>
+      <c r="D56">
+        <v>102.718333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
         <v>30.29365</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>120.161419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57">
-        <v>4.5709</v>
-      </c>
-      <c r="D57">
-        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C58">
-        <v>45.1</v>
+        <v>-35.6751</v>
       </c>
       <c r="D58">
-        <v>15.2</v>
+        <v>-71.543000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C59">
-        <v>49.817500000000003</v>
+        <v>4.5709</v>
       </c>
       <c r="D59">
-        <v>15.473000000000001</v>
+        <v>-74.297300000000007</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C60">
-        <v>56.2639</v>
+        <v>45.1</v>
       </c>
       <c r="D60">
-        <v>9.5017999999999994</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61">
-        <v>18.735700000000001</v>
+        <v>49.817500000000003</v>
       </c>
       <c r="D61">
-        <v>-70.162700000000001</v>
+        <v>15.473000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C62">
-        <v>-1.8311999999999999</v>
+        <v>56.2639</v>
       </c>
       <c r="D62">
-        <v>-78.183400000000006</v>
+        <v>9.5017999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C63">
-        <v>26.820599999999999</v>
+        <v>18.735700000000001</v>
       </c>
       <c r="D63">
-        <v>30.802499999999998</v>
+        <v>-70.162700000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C64">
-        <v>58.595300000000002</v>
+        <v>-1.8311999999999999</v>
       </c>
       <c r="D64">
-        <v>25.0136</v>
+        <v>-78.183400000000006</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C65">
-        <v>61.924100000000003</v>
+        <v>26.820599999999999</v>
       </c>
       <c r="D65">
-        <v>25.748200000000001</v>
+        <v>30.802499999999998</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C66">
-        <v>46.227600000000002</v>
+        <v>58.595300000000002</v>
       </c>
       <c r="D66">
-        <v>2.2136999999999998</v>
+        <v>25.0136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C67">
-        <v>42.315399999999997</v>
+        <v>61.924100000000003</v>
       </c>
       <c r="D67">
-        <v>43.356900000000003</v>
+        <v>25.748200000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C68">
-        <v>48.790399999999998</v>
+        <v>46.227600000000002</v>
       </c>
       <c r="D68">
-        <v>11.4979</v>
+        <v>2.2136999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69">
+        <v>42.315399999999997</v>
+      </c>
+      <c r="D69">
+        <v>43.356900000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C69">
-        <v>51.165700000000001</v>
-      </c>
-      <c r="D69">
-        <v>10.451499999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>121</v>
-      </c>
       <c r="C70">
-        <v>39.074199999999998</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D70">
-        <v>21.824300000000001</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>22.302710999999999</v>
+        <v>51.165700000000001</v>
       </c>
       <c r="D71">
-        <v>114.177216</v>
+        <v>10.451499999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C72">
-        <v>64.963099999999997</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D72">
-        <v>-19.020800000000001</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>20.593699999999998</v>
+        <v>22.302710999999999</v>
       </c>
       <c r="D73">
-        <v>78.962900000000005</v>
+        <v>114.177216</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C74">
-        <v>-0.7893</v>
+        <v>64.963099999999997</v>
       </c>
       <c r="D74">
-        <v>113.9213</v>
+        <v>-19.020800000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C75">
-        <v>32.427900000000001</v>
+        <v>20.593699999999998</v>
       </c>
       <c r="D75">
-        <v>53.688000000000002</v>
+        <v>78.962900000000005</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C76">
-        <v>33.223199999999999</v>
+        <v>-0.7893</v>
       </c>
       <c r="D76">
-        <v>43.679299999999998</v>
+        <v>113.9213</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C77">
-        <v>53.142400000000002</v>
+        <v>32.427900000000001</v>
       </c>
       <c r="D77">
-        <v>7.6920999999999999</v>
+        <v>53.688000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>100</v>
-      </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C78">
-        <v>31.046099999999999</v>
+        <v>33.223199999999999</v>
       </c>
       <c r="D78">
-        <v>34.851599999999998</v>
+        <v>43.679299999999998</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79">
+        <v>53.142400000000002</v>
+      </c>
+      <c r="D79">
+        <v>7.6920999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
         <v>103</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>31.046099999999999</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>34.851599999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80">
-        <v>41.871899999999997</v>
-      </c>
-      <c r="D80">
-        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C81">
-        <v>7.54</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D81">
-        <v>-5.5471000000000004</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C82">
-        <v>35.685000000000002</v>
+        <v>41.871899999999997</v>
       </c>
       <c r="D82">
-        <v>139.75138899999999</v>
+        <v>12.567399999999999</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>29.311699999999998</v>
+        <v>7.54</v>
       </c>
       <c r="D83">
-        <v>47.4818</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C84">
-        <v>56.879600000000003</v>
+        <v>35.685000000000002</v>
       </c>
       <c r="D84">
-        <v>24.603200000000001</v>
+        <v>139.75138899999999</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C85">
-        <v>33.854700000000001</v>
+        <v>30.5852</v>
       </c>
       <c r="D85">
-        <v>35.862299999999998</v>
+        <v>36.238399999999999</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C86">
-        <v>55.169400000000003</v>
+        <v>29.311699999999998</v>
       </c>
       <c r="D86">
-        <v>23.8813</v>
+        <v>47.4818</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C87">
-        <v>49.815300000000001</v>
+        <v>56.879600000000003</v>
       </c>
       <c r="D87">
-        <v>6.1295999999999999</v>
+        <v>24.603200000000001</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C88">
-        <v>22.200559999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D88">
-        <v>113.54611</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C89">
-        <v>4.2104999999999997</v>
+        <v>55.169400000000003</v>
       </c>
       <c r="D89">
-        <v>101.97580000000001</v>
+        <v>23.8813</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C90">
-        <v>23.634499999999999</v>
+        <v>49.815300000000001</v>
       </c>
       <c r="D90">
-        <v>-102.5528</v>
+        <v>6.1295999999999999</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C91">
-        <v>43.738399999999999</v>
+        <v>22.200559999999999</v>
       </c>
       <c r="D91">
-        <v>7.4245999999999999</v>
+        <v>113.54611</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C92">
-        <v>31.791699999999999</v>
+        <v>4.2104999999999997</v>
       </c>
       <c r="D92">
-        <v>-7.0926</v>
+        <v>101.97580000000001</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C93">
-        <v>28.3949</v>
+        <v>23.634499999999999</v>
       </c>
       <c r="D93">
-        <v>84.123999999999995</v>
+        <v>-102.5528</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C94">
-        <v>52.132599999999996</v>
+        <v>43.738399999999999</v>
       </c>
       <c r="D94">
-        <v>5.2912999999999997</v>
+        <v>7.4245999999999999</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C95">
-        <v>-40.900599999999997</v>
+        <v>31.791699999999999</v>
       </c>
       <c r="D95">
-        <v>174.886</v>
+        <v>-7.0926</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="C96">
-        <v>9.0820000000000007</v>
+        <v>28.3949</v>
       </c>
       <c r="D96">
-        <v>8.6753</v>
+        <v>84.123999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C97">
-        <v>54.787700000000001</v>
+        <v>52.132599999999996</v>
       </c>
       <c r="D97">
-        <v>-6.4923000000000002</v>
+        <v>5.2912999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C98">
-        <v>41.608600000000003</v>
+        <v>-40.900599999999997</v>
       </c>
       <c r="D98">
-        <v>21.7453</v>
+        <v>174.886</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C99">
-        <v>60.472000000000001</v>
+        <v>9.0820000000000007</v>
       </c>
       <c r="D99">
-        <v>8.4688999999999997</v>
+        <v>8.6753</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C100">
-        <v>21.473500000000001</v>
+        <v>54.787700000000001</v>
       </c>
       <c r="D100">
-        <v>55.9754</v>
+        <v>-6.4923000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>90</v>
-      </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C101">
-        <v>35.4437</v>
+        <v>41.608600000000003</v>
       </c>
       <c r="D101">
-        <v>139.63800000000001</v>
+        <v>21.7453</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C102">
-        <v>30.375299999999999</v>
+        <v>60.472000000000001</v>
       </c>
       <c r="D102">
-        <v>69.345100000000002</v>
+        <v>8.4688999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C103">
-        <v>12.8797</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="D103">
-        <v>121.774</v>
+        <v>55.9754</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>90</v>
+      </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C104">
-        <v>39.399900000000002</v>
+        <v>35.4437</v>
       </c>
       <c r="D104">
-        <v>8.2245000000000008</v>
+        <v>139.63800000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C105">
-        <v>25.354800000000001</v>
+        <v>30.375299999999999</v>
       </c>
       <c r="D105">
-        <v>51.183900000000001</v>
+        <v>69.345100000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C106">
-        <v>45.943199999999997</v>
+        <v>12.8797</v>
       </c>
       <c r="D106">
-        <v>24.966799999999999</v>
+        <v>121.774</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C107">
-        <v>61.524000000000001</v>
+        <v>39.399900000000002</v>
       </c>
       <c r="D107">
-        <v>105.3188</v>
+        <v>8.2245000000000008</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C108">
-        <v>43.942399999999999</v>
+        <v>25.354800000000001</v>
       </c>
       <c r="D108">
-        <v>12.457800000000001</v>
+        <v>51.183900000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C109">
-        <v>23.885899999999999</v>
+        <v>45.943199999999997</v>
       </c>
       <c r="D109">
-        <v>45.0792</v>
+        <v>24.966799999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C110">
-        <v>14.497400000000001</v>
+        <v>61.524000000000001</v>
       </c>
       <c r="D110">
-        <v>-14.452400000000001</v>
+        <v>105.3188</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C111">
-        <v>1.3521000000000001</v>
+        <v>43.942399999999999</v>
       </c>
       <c r="D111">
-        <v>103.8198</v>
+        <v>12.457800000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C112">
-        <v>37.598500000000001</v>
+        <v>23.885899999999999</v>
       </c>
       <c r="D112">
-        <v>126.9783</v>
+        <v>45.0792</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="C113">
-        <v>40.463700000000003</v>
+        <v>14.497400000000001</v>
       </c>
       <c r="D113">
-        <v>-3.7492000000000001</v>
+        <v>-14.452400000000001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C114">
-        <v>7.8731</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="D114">
-        <v>80.771799999999999</v>
+        <v>103.8198</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C115">
-        <v>60.1282</v>
+        <v>37.598500000000001</v>
       </c>
       <c r="D115">
-        <v>18.6435</v>
+        <v>126.9783</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C116">
-        <v>46.818199999999997</v>
+        <v>40.463700000000003</v>
       </c>
       <c r="D116">
-        <v>8.2274999999999991</v>
+        <v>-3.7492000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>23.697808999999999</v>
+        <v>7.8731</v>
       </c>
       <c r="D117">
-        <v>120.96051799999999</v>
+        <v>80.771799999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C118">
-        <v>13.730579000000001</v>
+        <v>60.1282</v>
       </c>
       <c r="D118">
-        <v>100.523884</v>
+        <v>18.6435</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C119">
-        <v>55.378100000000003</v>
+        <v>46.818199999999997</v>
       </c>
       <c r="D119">
-        <v>-3.4359999999999999</v>
+        <v>8.2274999999999991</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>23.697808999999999</v>
+      </c>
+      <c r="D120">
+        <v>120.96051799999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121">
+        <v>13.730579000000001</v>
+      </c>
+      <c r="D121">
+        <v>100.523884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="D122">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123">
+        <v>48.379399999999997</v>
+      </c>
+      <c r="D123">
+        <v>31.165600000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>47</v>
       </c>
-      <c r="C120">
+      <c r="C124">
         <v>23.424099999999999</v>
       </c>
-      <c r="D120">
+      <c r="D124">
         <v>53.847799999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>40</v>
-      </c>
-      <c r="B121" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D121">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>99</v>
-      </c>
-      <c r="B122" t="s">
-        <v>30</v>
-      </c>
-      <c r="C122">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D122">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>75</v>
-      </c>
-      <c r="B123" t="s">
-        <v>30</v>
-      </c>
-      <c r="C123">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D123">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" t="s">
-        <v>30</v>
-      </c>
-      <c r="C124">
-        <v>36.778300000000002</v>
-      </c>
-      <c r="D124">
-        <v>-119.4179</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
         <v>30</v>
       </c>
       <c r="C125">
-        <v>41.878100000000003</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D125">
-        <v>-87.629800000000003</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B126" t="s">
         <v>30</v>
       </c>
       <c r="C126">
-        <v>41.737699999999997</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D126">
-        <v>-87.697599999999994</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
         <v>30</v>
       </c>
       <c r="C127">
-        <v>43.908799999999999</v>
+        <v>37.871499999999997</v>
       </c>
       <c r="D127">
-        <v>-71.825999999999993</v>
+        <v>-122.273</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
         <v>30</v>
       </c>
       <c r="C128">
-        <v>27.990400000000001</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D128">
-        <v>-82.3018</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
       </c>
       <c r="C129">
-        <v>40.744999999999997</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D129">
-        <v>-123.8695</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B130" t="s">
         <v>30</v>
       </c>
       <c r="C130">
-        <v>40.633099999999999</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D130">
-        <v>-89.398499999999999</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
         <v>30</v>
       </c>
       <c r="C131">
-        <v>47.548000000000002</v>
+        <v>41.737699999999997</v>
       </c>
       <c r="D131">
-        <v>-121.9836</v>
+        <v>-87.697599999999994</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
       </c>
       <c r="C132">
-        <v>29.387799999999999</v>
+        <v>33.803400000000003</v>
       </c>
       <c r="D132">
-        <v>-98.620500000000007</v>
+        <v>-84.396299999999997</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
         <v>30</v>
       </c>
       <c r="C133">
-        <v>29.387799999999999</v>
+        <v>43.908799999999999</v>
       </c>
       <c r="D133">
-        <v>-98.620500000000007</v>
+        <v>-71.825999999999993</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
         <v>30</v>
       </c>
       <c r="C134">
-        <v>34.052199999999999</v>
+        <v>27.990400000000001</v>
       </c>
       <c r="D134">
-        <v>-118.2437</v>
+        <v>-82.3018</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B135" t="s">
         <v>30</v>
       </c>
       <c r="C135">
-        <v>43.073099999999997</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D135">
-        <v>-89.401200000000003</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
       </c>
       <c r="C136">
-        <v>40.712800000000001</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D136">
-        <v>-74.006</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B137" t="s">
         <v>30</v>
       </c>
       <c r="C137">
-        <v>41.256500000000003</v>
+        <v>47.548000000000002</v>
       </c>
       <c r="D137">
-        <v>-95.9345</v>
+        <v>-121.9836</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B138" t="s">
         <v>30</v>
       </c>
       <c r="C138">
-        <v>41.256500000000003</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D138">
-        <v>-95.9345</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B139" t="s">
         <v>30</v>
       </c>
       <c r="C139">
-        <v>33.7879</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D139">
-        <v>-117.8531</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
       </c>
       <c r="C140">
-        <v>39.0916</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D140">
-        <v>-120.8039</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B141" t="s">
         <v>30</v>
       </c>
       <c r="C141">
-        <v>45.505099999999999</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D141">
-        <v>-122.675</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
       </c>
       <c r="C142">
-        <v>41.823999999999998</v>
+        <v>33.291800000000002</v>
       </c>
       <c r="D142">
-        <v>-71.412800000000004</v>
+        <v>-112.42910000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
         <v>30</v>
       </c>
       <c r="C143">
-        <v>38.474699999999999</v>
+        <v>40.712800000000001</v>
       </c>
       <c r="D143">
-        <v>-121.35420000000001</v>
+        <v>-74.006</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
         <v>30</v>
       </c>
       <c r="C144">
-        <v>29.424099999999999</v>
+        <v>43.176699999999997</v>
       </c>
       <c r="D144">
-        <v>-98.493600000000001</v>
+        <v>-71.144900000000007</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B145" t="s">
         <v>30</v>
       </c>
       <c r="C145">
-        <v>36.576099999999997</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D145">
-        <v>-120.9876</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B146" t="s">
         <v>30</v>
       </c>
       <c r="C146">
-        <v>32.715699999999998</v>
+        <v>41.256500000000003</v>
       </c>
       <c r="D146">
-        <v>-117.1611</v>
+        <v>-95.9345</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="B147" t="s">
         <v>30</v>
       </c>
       <c r="C147">
-        <v>37.563000000000002</v>
+        <v>33.7879</v>
       </c>
       <c r="D147">
-        <v>-122.32550000000001</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="B148" t="s">
         <v>30</v>
       </c>
       <c r="C148">
-        <v>37.354100000000003</v>
+        <v>39.0916</v>
       </c>
       <c r="D148">
-        <v>-121.9552</v>
+        <v>-120.8039</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B149" t="s">
         <v>30</v>
       </c>
       <c r="C149">
-        <v>27.336400000000001</v>
+        <v>45.505099999999999</v>
       </c>
       <c r="D149">
-        <v>-82.530699999999996</v>
+        <v>-122.675</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
         <v>30</v>
       </c>
       <c r="C150">
-        <v>47.606200000000001</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="D150">
-        <v>-122.3321</v>
+        <v>-71.412800000000004</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="B151" t="s">
         <v>30</v>
       </c>
       <c r="C151">
-        <v>48.033000000000001</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D151">
-        <v>-121.8339</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="B152" t="s">
         <v>30</v>
       </c>
       <c r="C152">
-        <v>38.578000000000003</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D152">
-        <v>-122.9888</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B153" t="s">
         <v>30</v>
       </c>
       <c r="C153">
-        <v>33.4255</v>
+        <v>36.576099999999997</v>
       </c>
       <c r="D153">
-        <v>-111.94</v>
+        <v>-120.9876</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B154" t="s">
         <v>30</v>
       </c>
       <c r="C154">
-        <v>38.272100000000002</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D154">
-        <v>-121.93989999999999</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
       </c>
       <c r="C155">
-        <v>38.272100000000002</v>
+        <v>37.563000000000002</v>
       </c>
       <c r="D155">
-        <v>-121.93989999999999</v>
+        <v>-122.32550000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
         <v>30</v>
       </c>
       <c r="C156">
-        <v>45.917400000000001</v>
+        <v>37.354100000000003</v>
       </c>
       <c r="D156">
-        <v>-119.3425</v>
+        <v>-121.9552</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
         <v>30</v>
       </c>
       <c r="C157">
-        <v>37.090200000000003</v>
+        <v>27.336400000000001</v>
       </c>
       <c r="D157">
-        <v>-95.712900000000005</v>
+        <v>-82.530699999999996</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D158">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>139</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>48.033000000000001</v>
+      </c>
+      <c r="D159">
+        <v>-121.8339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160">
+        <v>38.578000000000003</v>
+      </c>
+      <c r="D160">
+        <v>-122.9888</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161">
+        <v>33.4255</v>
+      </c>
+      <c r="D161">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D162">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>104</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D163">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164">
+        <v>45.917400000000001</v>
+      </c>
+      <c r="D164">
+        <v>-119.3425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B165" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="D165">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166">
+        <v>35.803199999999997</v>
+      </c>
+      <c r="D166">
+        <v>-78.566100000000006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>29</v>
       </c>
-      <c r="B158" t="s">
-        <v>30</v>
-      </c>
-      <c r="C158">
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167">
         <v>47.608013</v>
       </c>
-      <c r="D158">
+      <c r="D167">
         <v>-122.335167</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168">
+        <v>45.546999999999997</v>
+      </c>
+      <c r="D168">
+        <v>-123.1386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169">
+        <v>41.122</v>
+      </c>
+      <c r="D169">
+        <v>-73.794899999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
         <v>34</v>
       </c>
-      <c r="C159">
+      <c r="C170">
         <v>14.058299999999999</v>
       </c>
-      <c r="D159">
+      <c r="D170">
         <v>108.27719999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D159">
-    <sortCondition ref="B2:B159"/>
-    <sortCondition ref="A2:A159"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D170">
+    <sortCondition ref="B2:B170"/>
+    <sortCondition ref="A2:A170"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/latlnt.xlsx
+++ b/data/latlnt.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8800190-1268-41E8-BADC-F568254D6C35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D72C83-246E-4134-9EB3-DB98F0098879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10872" yWindow="0" windowWidth="11484" windowHeight="12156" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
+    <workbookView xWindow="31308" yWindow="2772" windowWidth="17280" windowHeight="8964" xr2:uid="{C5A0CF07-CAAC-4F20-8167-9DB6B439D7CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,20 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="190">
   <si>
     <t>Shanghai</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>Yunnan</t>
   </si>
   <si>
@@ -120,445 +111,496 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>Inner Mongolia</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Hebei</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Santa Clara, CA</t>
+  </si>
+  <si>
+    <t>Tempe, AZ</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>San Benito, CA</t>
+  </si>
+  <si>
+    <t>London, ON</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Diamond Princess cruise ship</t>
+  </si>
+  <si>
+    <t>San Diego County, CA</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Sacramento County, CA</t>
+  </si>
+  <si>
+    <t>From Diamond Princess</t>
+  </si>
+  <si>
+    <t>Humboldt County, CA</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Travis, CA (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Omaha, NE (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Lackland, TX (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Unassigned Location (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Snohomish County, WA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>King County, WA</t>
+  </si>
+  <si>
+    <t>Cook County, IL</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Grafton County, NH</t>
+  </si>
+  <si>
+    <t>Hillsborough, FL</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>Placer County, CA</t>
+  </si>
+  <si>
+    <t>San Mateo, CA</t>
+  </si>
+  <si>
+    <t>Sarasota, FL</t>
+  </si>
+  <si>
+    <t>Sonoma County, CA</t>
+  </si>
+  <si>
+    <t>Umatilla, OR</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Wake County, NC</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Washington County, OR</t>
+  </si>
+  <si>
+    <t>Maricopa County, AZ</t>
+  </si>
+  <si>
+    <t>Fulton County, GA</t>
+  </si>
+  <si>
+    <t>Berkeley, CA</t>
+  </si>
+  <si>
+    <t>Westchester County, NY</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Mainland China</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Orange County, CA</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montreal, QC</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norfolk County, MA</t>
+  </si>
+  <si>
+    <t>Contra Costa County, CA</t>
+  </si>
+  <si>
+    <t>Province/State</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>Orange, CA</t>
+  </si>
+  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Shanxi</t>
-  </si>
-  <si>
-    <t>Xinjiang</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Fujian</t>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Bavaria</t>
+  </si>
+  <si>
+    <t>Cruise Ship</t>
+  </si>
+  <si>
+    <t>Ashland, NE</t>
+  </si>
+  <si>
+    <t>Travis, CA</t>
+  </si>
+  <si>
+    <t>Lackland, TX</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>North Ireland</t>
   </si>
   <si>
     <t>Colombia</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Inner Mongolia</t>
-  </si>
-  <si>
-    <t>Tibet</t>
-  </si>
-  <si>
-    <t>Qinghai</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Jiangsu</t>
-  </si>
-  <si>
-    <t>Gansu</t>
-  </si>
-  <si>
-    <t>Shaanxi</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Hebei</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Bavaria</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>New South Wales</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
-    <t>Orange, CA</t>
-  </si>
-  <si>
-    <t>Santa Clara, CA</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>Tempe, AZ</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>South Australia</t>
-  </si>
-  <si>
-    <t>San Benito, CA</t>
-  </si>
-  <si>
-    <t>London, ON</t>
-  </si>
-  <si>
-    <t>Toronto, ON</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Madison, WI</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Diamond Princess cruise ship</t>
-  </si>
-  <si>
-    <t>San Diego County, CA</t>
-  </si>
-  <si>
-    <t>San Antonio, TX</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Omaha, NE</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Lackland, TX</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Sacramento County, CA</t>
-  </si>
-  <si>
-    <t>Ashland, NE</t>
-  </si>
-  <si>
-    <t>From Diamond Princess</t>
-  </si>
-  <si>
-    <t>Humboldt County, CA</t>
-  </si>
-  <si>
-    <t>Travis, CA</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Travis, CA (From Diamond Princess)</t>
-  </si>
-  <si>
-    <t>Omaha, NE (From Diamond Princess)</t>
-  </si>
-  <si>
-    <t>Lackland, TX (From Diamond Princess)</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Unassigned Location (From Diamond Princess)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Montreal, QC</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>North Ireland</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Western Australia</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Portland, OR</t>
-  </si>
-  <si>
-    <t>Snohomish County, WA</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Providence, RI</t>
-  </si>
-  <si>
-    <t>King County, WA</t>
-  </si>
-  <si>
-    <t>Cook County, IL</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Tasmania</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Grafton County, NH</t>
-  </si>
-  <si>
-    <t>Hillsborough, FL</t>
-  </si>
-  <si>
-    <t>New York City, NY</t>
-  </si>
-  <si>
-    <t>Placer County, CA</t>
-  </si>
-  <si>
-    <t>San Mateo, CA</t>
-  </si>
-  <si>
-    <t>Sarasota, FL</t>
-  </si>
-  <si>
-    <t>Sonoma County, CA</t>
-  </si>
-  <si>
-    <t>Umatilla, OR</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Wake County, NC</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Washington County, OR</t>
-  </si>
-  <si>
-    <t>Maricopa County, AZ</t>
-  </si>
-  <si>
-    <t>Fulton County, GA</t>
-  </si>
-  <si>
-    <t>Berkeley, CA</t>
-  </si>
-  <si>
-    <t>Norfolk County, MA</t>
-  </si>
-  <si>
-    <t>Westchester County, NY</t>
-  </si>
-  <si>
-    <t>Argentina</t>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Azerbaijan</t>
   </si>
 </sst>
 </file>
@@ -909,48 +951,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A738F-8F37-4561-9F4A-3FDD66CCD919}">
-  <dimension ref="A1:D170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C32F630-ECB8-431D-AFBA-AEC9613C6163}">
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>33.939100000000003</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>67.709999999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>28.033899999999999</v>
@@ -961,7 +1002,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>42.506300000000003</v>
@@ -972,7 +1013,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>-38.4161</v>
@@ -983,7 +1024,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>40.069099999999999</v>
@@ -994,2087 +1035,2298 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>-25.2744</v>
+        <v>35.4437</v>
       </c>
       <c r="D7">
-        <v>133.77510000000001</v>
+        <v>139.63800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>-31.2532</v>
+        <v>-33.8688</v>
       </c>
       <c r="D8">
-        <v>146.9211</v>
+        <v>151.20930000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>-20.9176</v>
+        <v>-12.4634</v>
       </c>
       <c r="D9">
-        <v>142.7028</v>
+        <v>130.84559999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>-30.0002</v>
+        <v>-28.0167</v>
       </c>
       <c r="D10">
-        <v>136.20920000000001</v>
+        <v>153.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>-37.471299999999999</v>
+        <v>-34.9285</v>
       </c>
       <c r="D11">
-        <v>144.7852</v>
+        <v>138.60069999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>-27.672799999999999</v>
+        <v>-41.454500000000003</v>
       </c>
       <c r="D12">
-        <v>121.6283</v>
+        <v>145.97069999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>-41.454500000000003</v>
+        <v>-37.813600000000001</v>
       </c>
       <c r="D13">
-        <v>145.97069999999999</v>
+        <v>144.9631</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>-25.2744</v>
+        <v>-31.950500000000002</v>
       </c>
       <c r="D14">
-        <v>133.77510000000001</v>
+        <v>115.8605</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>47.516199999999998</v>
+        <v>-25.2744</v>
       </c>
       <c r="D15">
-        <v>14.5501</v>
+        <v>133.77510000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="C16">
-        <v>40.143099999999997</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D16">
-        <v>47.576900000000002</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C17">
-        <v>26.066700000000001</v>
+        <v>47.516199999999998</v>
       </c>
       <c r="D17">
-        <v>50.557699999999997</v>
+        <v>14.5501</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C18">
-        <v>53.709800000000001</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D18">
-        <v>27.953399999999998</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C19">
-        <v>50.503900000000002</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D19">
-        <v>4.4699</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>-14.234999999999999</v>
+        <v>40.143099999999997</v>
       </c>
       <c r="D20">
-        <v>-51.9253</v>
+        <v>47.576900000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>12.5657</v>
+        <v>26.0275</v>
       </c>
       <c r="D21">
-        <v>104.991</v>
+        <v>50.55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C22">
-        <v>53.726700000000001</v>
+        <v>53.709800000000001</v>
       </c>
       <c r="D22">
-        <v>-127.6476</v>
+        <v>27.953399999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>42.984900000000003</v>
+        <v>50.833300000000001</v>
       </c>
       <c r="D23">
-        <v>-81.2453</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C24">
-        <v>45.5017</v>
+        <v>-14.234999999999999</v>
       </c>
       <c r="D24">
-        <v>-73.567300000000003</v>
+        <v>-51.9253</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25">
-        <v>51.253799999999998</v>
+        <v>11.55</v>
       </c>
       <c r="D25">
-        <v>-85.3232</v>
+        <v>104.91670000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>43.653199999999998</v>
+        <v>45.5017</v>
       </c>
       <c r="D26">
-        <v>-79.383200000000002</v>
+        <v>-73.567300000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>31.863889</v>
+        <v>49.282699999999998</v>
       </c>
       <c r="D27">
-        <v>117.280833</v>
+        <v>-123.1207</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>39.928818999999997</v>
+        <v>42.984900000000003</v>
       </c>
       <c r="D28">
-        <v>116.388869</v>
+        <v>-81.2453</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>29.562778000000002</v>
+        <v>43.653199999999998</v>
       </c>
       <c r="D29">
-        <v>106.552778</v>
+        <v>-79.383200000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>51.253799999999998</v>
+      </c>
+      <c r="D30">
+        <v>-85.3232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31">
+        <v>-35.6751</v>
+      </c>
+      <c r="D31">
+        <v>-71.543000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32">
+        <v>4.5709</v>
+      </c>
+      <c r="D32">
+        <v>-74.297300000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>45.166699999999999</v>
+      </c>
+      <c r="D33">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>49.817500000000003</v>
+      </c>
+      <c r="D34">
+        <v>15.473000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>56.2639</v>
+      </c>
+      <c r="D35">
+        <v>9.5017999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36">
+        <v>18.735700000000001</v>
+      </c>
+      <c r="D36">
+        <v>-70.162700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37">
+        <v>-1.8311999999999999</v>
+      </c>
+      <c r="D37">
+        <v>-78.183400000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>58.595300000000002</v>
+      </c>
+      <c r="D39">
+        <v>25.0136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40">
+        <v>61.892600000000002</v>
+      </c>
+      <c r="D40">
+        <v>-6.9118000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>26.061388999999998</v>
-      </c>
-      <c r="D30">
-        <v>119.306111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>36.057006000000001</v>
-      </c>
-      <c r="D31">
-        <v>103.839868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>23.116667</v>
-      </c>
-      <c r="D32">
-        <v>113.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>22.816666999999999</v>
-      </c>
-      <c r="D33">
-        <v>108.316667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>26.583333</v>
-      </c>
-      <c r="D34">
-        <v>106.716667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>20.045832999999998</v>
-      </c>
-      <c r="D35">
-        <v>110.341667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>38.041389000000002</v>
-      </c>
-      <c r="D36">
-        <v>114.478611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>45.75</v>
-      </c>
-      <c r="D37">
-        <v>126.65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>34.683610999999999</v>
-      </c>
-      <c r="D38">
-        <v>113.5325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>30.583333</v>
-      </c>
-      <c r="D39">
-        <v>114.266667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>28.2</v>
-      </c>
-      <c r="D40">
-        <v>112.966667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>40.810555999999998</v>
-      </c>
-      <c r="D41">
-        <v>111.65222199999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
       <c r="C42">
-        <v>32.061667</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>118.777778</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C43">
-        <v>28.655757999999999</v>
+        <v>42.315399999999997</v>
       </c>
       <c r="D43">
-        <v>115.90504900000001</v>
+        <v>43.356900000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>43.88</v>
+        <v>48.790399999999998</v>
       </c>
       <c r="D44">
-        <v>125.322778</v>
+        <v>11.4979</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>41.792222000000002</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>123.432778</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="C46">
-        <v>38.468055999999997</v>
+        <v>36.140799999999999</v>
       </c>
       <c r="D46">
-        <v>106.273056</v>
+        <v>-5.3536000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C47">
-        <v>36.625540999999998</v>
+        <v>39.074199999999998</v>
       </c>
       <c r="D47">
-        <v>101.75739</v>
+        <v>21.824300000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>34.258333</v>
+        <v>22.3</v>
       </c>
       <c r="D48">
-        <v>108.928611</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C49">
-        <v>36.668332999999997</v>
+        <v>47.162500000000001</v>
       </c>
       <c r="D49">
-        <v>116.99722199999999</v>
+        <v>19.503299999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C50">
-        <v>31.222221999999999</v>
+        <v>64.963099999999997</v>
       </c>
       <c r="D50">
-        <v>121.458056</v>
+        <v>-19.020800000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>35</v>
-      </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>37.869444000000001</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>112.560278</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="C52">
-        <v>30.666667</v>
+        <v>-0.7893</v>
       </c>
       <c r="D52">
-        <v>104.066667</v>
+        <v>113.9213</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C53">
-        <v>39.142221999999997</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>117.17666699999999</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C54">
-        <v>29.65</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>91.1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C55">
-        <v>43.807347</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>87.630505999999997</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C56">
-        <v>25.038889000000001</v>
+        <v>53.142400000000002</v>
       </c>
       <c r="D56">
-        <v>102.718333</v>
+        <v>-7.6920999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C57">
-        <v>30.29365</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>120.161419</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="C58">
-        <v>-35.6751</v>
+        <v>31.046099999999999</v>
       </c>
       <c r="D58">
-        <v>-71.543000000000006</v>
+        <v>34.851599999999998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>4.5709</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>-74.297300000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C60">
-        <v>45.1</v>
+        <v>7.54</v>
       </c>
       <c r="D60">
-        <v>15.2</v>
+        <v>-5.5471000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>49.817500000000003</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>15.473000000000001</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C62">
-        <v>56.2639</v>
+        <v>31.24</v>
       </c>
       <c r="D62">
-        <v>9.5017999999999994</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C63">
-        <v>18.735700000000001</v>
+        <v>29.5</v>
       </c>
       <c r="D63">
-        <v>-70.162700000000001</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C64">
-        <v>-1.8311999999999999</v>
+        <v>56.879600000000003</v>
       </c>
       <c r="D64">
-        <v>-78.183400000000006</v>
+        <v>24.603200000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C65">
-        <v>26.820599999999999</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D65">
-        <v>30.802499999999998</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C66">
-        <v>58.595300000000002</v>
+        <v>33.854700000000001</v>
       </c>
       <c r="D66">
-        <v>25.0136</v>
+        <v>35.862299999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C67">
-        <v>61.924100000000003</v>
+        <v>47.14</v>
       </c>
       <c r="D67">
-        <v>25.748200000000001</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C68">
-        <v>46.227600000000002</v>
+        <v>55.169400000000003</v>
       </c>
       <c r="D68">
-        <v>2.2136999999999998</v>
+        <v>23.8813</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C69">
-        <v>42.315399999999997</v>
+        <v>49.814399999999999</v>
       </c>
       <c r="D69">
-        <v>43.356900000000003</v>
+        <v>6.1317000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C70">
-        <v>48.790399999999998</v>
+        <v>22.166699999999999</v>
       </c>
       <c r="D70">
-        <v>11.4979</v>
+        <v>113.55</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C71">
-        <v>51.165700000000001</v>
+        <v>31.825700000000001</v>
       </c>
       <c r="D71">
-        <v>10.451499999999999</v>
+        <v>117.2264</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C72">
-        <v>39.074199999999998</v>
+        <v>40.182400000000001</v>
       </c>
       <c r="D72">
-        <v>21.824300000000001</v>
+        <v>116.41419999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="C73">
-        <v>22.302710999999999</v>
+        <v>30.057200000000002</v>
       </c>
       <c r="D73">
-        <v>114.177216</v>
+        <v>107.874</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C74">
-        <v>64.963099999999997</v>
+        <v>26.078900000000001</v>
       </c>
       <c r="D74">
-        <v>-19.020800000000001</v>
+        <v>117.98739999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C75">
-        <v>20.593699999999998</v>
+        <v>36.061100000000003</v>
       </c>
       <c r="D75">
-        <v>78.962900000000005</v>
+        <v>103.8343</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C76">
-        <v>-0.7893</v>
+        <v>23.341699999999999</v>
       </c>
       <c r="D76">
-        <v>113.9213</v>
+        <v>113.42440000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C77">
-        <v>32.427900000000001</v>
+        <v>23.829799999999999</v>
       </c>
       <c r="D77">
-        <v>53.688000000000002</v>
+        <v>108.7881</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C78">
-        <v>33.223199999999999</v>
+        <v>26.8154</v>
       </c>
       <c r="D78">
-        <v>43.679299999999998</v>
+        <v>106.87479999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C79">
-        <v>53.142400000000002</v>
+        <v>19.195900000000002</v>
       </c>
       <c r="D79">
-        <v>7.6920999999999999</v>
+        <v>109.7453</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C80">
-        <v>31.046099999999999</v>
+        <v>38.0428</v>
       </c>
       <c r="D80">
-        <v>34.851599999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+        <v>114.5149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C81">
-        <v>31.046099999999999</v>
+        <v>47.862000000000002</v>
       </c>
       <c r="D81">
-        <v>34.851599999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+        <v>127.7615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C82">
-        <v>41.871899999999997</v>
+        <v>33.881999999999998</v>
       </c>
       <c r="D82">
-        <v>12.567399999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+        <v>113.614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C83">
-        <v>7.54</v>
+        <v>30.9756</v>
       </c>
       <c r="D83">
-        <v>-5.5471000000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+        <v>112.27070000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C84">
-        <v>35.685000000000002</v>
+        <v>27.610399999999998</v>
       </c>
       <c r="D84">
-        <v>139.75138899999999</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+        <v>111.7088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C85">
-        <v>30.5852</v>
+        <v>44.093499999999999</v>
       </c>
       <c r="D85">
-        <v>36.238399999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+        <v>113.9448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C86">
-        <v>29.311699999999998</v>
+        <v>32.9711</v>
       </c>
       <c r="D86">
-        <v>47.4818</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+        <v>119.455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
       <c r="B87" t="s">
         <v>153</v>
       </c>
       <c r="C87">
-        <v>56.879600000000003</v>
+        <v>27.614000000000001</v>
       </c>
       <c r="D87">
-        <v>24.603200000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+        <v>115.7221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C88">
-        <v>33.854700000000001</v>
+        <v>43.6661</v>
       </c>
       <c r="D88">
-        <v>35.862299999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+        <v>126.1923</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C89">
-        <v>55.169400000000003</v>
+        <v>41.2956</v>
       </c>
       <c r="D89">
-        <v>23.8813</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+        <v>122.60850000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C90">
-        <v>49.815300000000001</v>
+        <v>37.269199999999998</v>
       </c>
       <c r="D90">
-        <v>6.1295999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+        <v>106.16549999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
       <c r="B91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91">
+        <v>35.745199999999997</v>
+      </c>
+      <c r="D91">
+        <v>95.995599999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92">
+        <v>35.191699999999997</v>
+      </c>
+      <c r="D92">
+        <v>108.87009999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93">
+        <v>36.342700000000001</v>
+      </c>
+      <c r="D93">
+        <v>118.1498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94">
+        <v>31.202000000000002</v>
+      </c>
+      <c r="D94">
+        <v>121.4491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95">
+        <v>37.5777</v>
+      </c>
+      <c r="D95">
+        <v>112.29219999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96">
+        <v>30.617100000000001</v>
+      </c>
+      <c r="D96">
+        <v>102.7103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97">
+        <v>39.305399999999999</v>
+      </c>
+      <c r="D97">
+        <v>117.32299999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>33</v>
       </c>
-      <c r="C91">
-        <v>22.200559999999999</v>
-      </c>
-      <c r="D91">
-        <v>113.54611</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92">
-        <v>4.2104999999999997</v>
-      </c>
-      <c r="D92">
-        <v>101.97580000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93">
-        <v>23.634499999999999</v>
-      </c>
-      <c r="D93">
-        <v>-102.5528</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C94">
-        <v>43.738399999999999</v>
-      </c>
-      <c r="D94">
-        <v>7.4245999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>154</v>
-      </c>
-      <c r="C95">
-        <v>31.791699999999999</v>
-      </c>
-      <c r="D95">
-        <v>-7.0926</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96">
-        <v>28.3949</v>
-      </c>
-      <c r="D96">
-        <v>84.123999999999995</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97">
-        <v>52.132599999999996</v>
-      </c>
-      <c r="D97">
-        <v>5.2912999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C98">
-        <v>-40.900599999999997</v>
+        <v>31.692699999999999</v>
       </c>
       <c r="D98">
-        <v>174.886</v>
+        <v>88.092399999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C99">
-        <v>9.0820000000000007</v>
+        <v>41.112900000000003</v>
       </c>
       <c r="D99">
-        <v>8.6753</v>
+        <v>85.240099999999998</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C100">
-        <v>54.787700000000001</v>
+        <v>24.974</v>
       </c>
       <c r="D100">
-        <v>-6.4923000000000002</v>
+        <v>101.48699999999999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C101">
-        <v>41.608600000000003</v>
+        <v>29.183199999999999</v>
       </c>
       <c r="D101">
-        <v>21.7453</v>
+        <v>120.0934</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C102">
-        <v>60.472000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="D102">
-        <v>8.4688999999999997</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C103">
-        <v>21.473500000000001</v>
+        <v>23</v>
       </c>
       <c r="D103">
-        <v>55.9754</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>90</v>
-      </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C104">
-        <v>35.4437</v>
+        <v>43.7333</v>
       </c>
       <c r="D104">
-        <v>139.63800000000001</v>
+        <v>7.4166999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C105">
-        <v>30.375299999999999</v>
+        <v>31.791699999999999</v>
       </c>
       <c r="D105">
-        <v>69.345100000000002</v>
+        <v>-7.0926</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C106">
-        <v>12.8797</v>
+        <v>28.166699999999999</v>
       </c>
       <c r="D106">
-        <v>121.774</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C107">
-        <v>39.399900000000002</v>
+        <v>52.132599999999996</v>
       </c>
       <c r="D107">
-        <v>8.2245000000000008</v>
+        <v>5.2912999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C108">
-        <v>25.354800000000001</v>
+        <v>-40.900599999999997</v>
       </c>
       <c r="D108">
-        <v>51.183900000000001</v>
+        <v>174.886</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>45.943199999999997</v>
+        <v>9.0820000000000007</v>
       </c>
       <c r="D109">
-        <v>24.966799999999999</v>
+        <v>8.6753</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="C110">
-        <v>61.524000000000001</v>
+        <v>54.787700000000001</v>
       </c>
       <c r="D110">
-        <v>105.3188</v>
+        <v>-6.4923000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C111">
-        <v>43.942399999999999</v>
+        <v>41.608600000000003</v>
       </c>
       <c r="D111">
-        <v>12.457800000000001</v>
+        <v>21.7453</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C112">
-        <v>23.885899999999999</v>
+        <v>60.472000000000001</v>
       </c>
       <c r="D112">
-        <v>45.0792</v>
+        <v>8.4688999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C113">
-        <v>14.497400000000001</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>-14.452400000000001</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>73</v>
+      </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C114">
-        <v>1.3521000000000001</v>
+        <v>35.4437</v>
       </c>
       <c r="D114">
-        <v>103.8198</v>
+        <v>139.63800000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C115">
-        <v>37.598500000000001</v>
+        <v>35.4437</v>
       </c>
       <c r="D115">
-        <v>126.9783</v>
+        <v>139.63800000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C116">
-        <v>40.463700000000003</v>
+        <v>30.375299999999999</v>
       </c>
       <c r="D116">
-        <v>-3.7492000000000001</v>
+        <v>69.345100000000002</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C117">
-        <v>7.8731</v>
+        <v>13</v>
       </c>
       <c r="D117">
-        <v>80.771799999999999</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="C118">
-        <v>60.1282</v>
+        <v>51.919400000000003</v>
       </c>
       <c r="D118">
-        <v>18.6435</v>
+        <v>19.145099999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C119">
-        <v>46.818199999999997</v>
+        <v>39.399900000000002</v>
       </c>
       <c r="D119">
-        <v>8.2274999999999991</v>
+        <v>-8.2245000000000008</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C120">
-        <v>23.697808999999999</v>
+        <v>25.354800000000001</v>
       </c>
       <c r="D120">
-        <v>120.96051799999999</v>
+        <v>51.183900000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="C121">
-        <v>13.730579000000001</v>
+        <v>46</v>
       </c>
       <c r="D121">
-        <v>100.523884</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C122">
-        <v>55.378100000000003</v>
+        <v>60</v>
       </c>
       <c r="D122">
-        <v>-3.4359999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C123">
-        <v>48.379399999999997</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D123">
-        <v>31.165600000000001</v>
+        <v>-62.833300000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C124">
-        <v>23.424099999999999</v>
+        <v>43.942399999999999</v>
       </c>
       <c r="D124">
-        <v>53.847799999999999</v>
+        <v>12.457800000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125">
+        <v>24</v>
+      </c>
+      <c r="D125">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126">
+        <v>14.497400000000001</v>
+      </c>
+      <c r="D126">
+        <v>-14.452400000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>1.2833000000000001</v>
+      </c>
+      <c r="D127">
+        <v>103.83329999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>36</v>
+      </c>
+      <c r="D128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129">
         <v>40</v>
       </c>
-      <c r="B125" t="s">
-        <v>30</v>
-      </c>
-      <c r="C125">
-        <v>34.048926999999999</v>
-      </c>
-      <c r="D125">
-        <v>-111.093735</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>99</v>
-      </c>
-      <c r="B126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126">
-        <v>41.039299999999997</v>
-      </c>
-      <c r="D126">
-        <v>-96.368300000000005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>172</v>
-      </c>
-      <c r="B127" t="s">
-        <v>30</v>
-      </c>
-      <c r="C127">
-        <v>37.871499999999997</v>
-      </c>
-      <c r="D127">
-        <v>-122.273</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>75</v>
-      </c>
-      <c r="B128" t="s">
-        <v>30</v>
-      </c>
-      <c r="C128">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="D128">
-        <v>-71.058899999999994</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>58</v>
-      </c>
-      <c r="B129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129">
-        <v>36.778300000000002</v>
-      </c>
       <c r="D129">
-        <v>-119.4179</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>76</v>
-      </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C130">
-        <v>41.878100000000003</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>-87.629800000000003</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>148</v>
-      </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C131">
-        <v>41.737699999999997</v>
+        <v>63</v>
       </c>
       <c r="D131">
-        <v>-87.697599999999994</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>171</v>
-      </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C132">
-        <v>33.803400000000003</v>
+        <v>46.818199999999997</v>
       </c>
       <c r="D132">
-        <v>-84.396299999999997</v>
+        <v>8.2274999999999991</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>43.908799999999999</v>
+        <v>23.7</v>
       </c>
       <c r="D133">
-        <v>-71.825999999999993</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>158</v>
-      </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C134">
-        <v>27.990400000000001</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>-82.3018</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>101</v>
-      </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="C135">
-        <v>40.744999999999997</v>
+        <v>34</v>
       </c>
       <c r="D135">
-        <v>-123.8695</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>44</v>
-      </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C136">
-        <v>40.633099999999999</v>
+        <v>55</v>
       </c>
       <c r="D136">
-        <v>-89.398499999999999</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>147</v>
-      </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C137">
-        <v>47.548000000000002</v>
+        <v>48.379399999999997</v>
       </c>
       <c r="D137">
-        <v>-121.9836</v>
+        <v>31.165600000000001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>96</v>
-      </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C138">
-        <v>29.387799999999999</v>
+        <v>24</v>
       </c>
       <c r="D138">
-        <v>-98.620500000000007</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C139">
-        <v>29.387799999999999</v>
+        <v>34.048926999999999</v>
       </c>
       <c r="D139">
-        <v>-98.620500000000007</v>
+        <v>-111.093735</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C140">
-        <v>34.052199999999999</v>
+        <v>41.039299999999997</v>
       </c>
       <c r="D140">
-        <v>-118.2437</v>
+        <v>-96.368300000000005</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C141">
-        <v>43.073099999999997</v>
+        <v>42.176699999999997</v>
       </c>
       <c r="D141">
-        <v>-89.401200000000003</v>
+        <v>-71.144900000000007</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C142">
-        <v>33.291800000000002</v>
+        <v>37.871499999999997</v>
       </c>
       <c r="D142">
-        <v>-112.42910000000001</v>
+        <v>-122.273</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C143">
-        <v>40.712800000000001</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D143">
-        <v>-74.006</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C144">
-        <v>43.176699999999997</v>
+        <v>36.778300000000002</v>
       </c>
       <c r="D144">
-        <v>-71.144900000000007</v>
+        <v>-119.4179</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C145">
-        <v>41.256500000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D145">
-        <v>-95.9345</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C146">
-        <v>41.256500000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D146">
-        <v>-95.9345</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C147">
-        <v>33.7879</v>
+        <v>37.853400000000001</v>
       </c>
       <c r="D147">
-        <v>-117.8531</v>
+        <v>-121.90179999999999</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C148">
-        <v>39.0916</v>
+        <v>41.737699999999997</v>
       </c>
       <c r="D148">
-        <v>-120.8039</v>
+        <v>-87.697599999999994</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C149">
-        <v>45.505099999999999</v>
+        <v>33.803400000000003</v>
       </c>
       <c r="D149">
-        <v>-122.675</v>
+        <v>-84.396299999999997</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C150">
-        <v>41.823999999999998</v>
+        <v>43.908799999999999</v>
       </c>
       <c r="D150">
-        <v>-71.412800000000004</v>
+        <v>-71.825999999999993</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C151">
-        <v>38.474699999999999</v>
+        <v>40.633099999999999</v>
       </c>
       <c r="D151">
-        <v>-121.35420000000001</v>
+        <v>-89.398499999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C152">
-        <v>29.424099999999999</v>
+        <v>27.990400000000001</v>
       </c>
       <c r="D152">
-        <v>-98.493600000000001</v>
+        <v>-82.3018</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C153">
-        <v>36.576099999999997</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="D153">
-        <v>-120.9876</v>
+        <v>-123.8695</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C154">
-        <v>32.715699999999998</v>
+        <v>47.548000000000002</v>
       </c>
       <c r="D154">
-        <v>-117.1611</v>
+        <v>-121.9836</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C155">
-        <v>37.563000000000002</v>
+        <v>29.387799999999999</v>
       </c>
       <c r="D155">
-        <v>-122.32550000000001</v>
+        <v>-98.620500000000007</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C156">
-        <v>37.354100000000003</v>
+        <v>29.382899999999999</v>
       </c>
       <c r="D156">
-        <v>-121.9552</v>
+        <v>-98.613399999999999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="B157" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C157">
-        <v>27.336400000000001</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D157">
-        <v>-82.530699999999996</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C158">
-        <v>47.606200000000001</v>
+        <v>43.073099999999997</v>
       </c>
       <c r="D158">
-        <v>-122.3321</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C159">
-        <v>48.033000000000001</v>
+        <v>33.291800000000002</v>
       </c>
       <c r="D159">
-        <v>-121.8339</v>
+        <v>-112.42910000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C160">
-        <v>38.578000000000003</v>
+        <v>40.712800000000001</v>
       </c>
       <c r="D160">
-        <v>-122.9888</v>
+        <v>-74.006</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C161">
-        <v>33.4255</v>
+        <v>41.2545</v>
       </c>
       <c r="D161">
-        <v>-111.94</v>
+        <v>-95.975800000000007</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C162">
-        <v>38.272100000000002</v>
+        <v>33.7879</v>
       </c>
       <c r="D162">
-        <v>-121.93989999999999</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C163">
-        <v>38.272100000000002</v>
+        <v>33.7879</v>
       </c>
       <c r="D163">
-        <v>-121.93989999999999</v>
+        <v>-117.8531</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C164">
-        <v>45.917400000000001</v>
+        <v>39.0916</v>
       </c>
       <c r="D164">
-        <v>-119.3425</v>
+        <v>-120.8039</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C165">
-        <v>37.090200000000003</v>
+        <v>45.505099999999999</v>
       </c>
       <c r="D165">
-        <v>-95.712900000000005</v>
+        <v>-122.675</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B166" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C166">
-        <v>35.803199999999997</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="D166">
-        <v>-78.566100000000006</v>
+        <v>-71.412800000000004</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C167">
-        <v>47.608013</v>
+        <v>38.474699999999999</v>
       </c>
       <c r="D167">
-        <v>-122.335167</v>
+        <v>-121.35420000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C168">
-        <v>45.546999999999997</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="D168">
-        <v>-123.1386</v>
+        <v>-98.493600000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C169">
+        <v>36.576099999999997</v>
+      </c>
+      <c r="D169">
+        <v>-120.9876</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" t="s">
+        <v>154</v>
+      </c>
+      <c r="C170">
+        <v>32.715699999999998</v>
+      </c>
+      <c r="D170">
+        <v>-117.1611</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" t="s">
+        <v>154</v>
+      </c>
+      <c r="C171">
+        <v>37.563000000000002</v>
+      </c>
+      <c r="D171">
+        <v>-122.32550000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>63</v>
+      </c>
+      <c r="B172" t="s">
+        <v>154</v>
+      </c>
+      <c r="C172">
+        <v>37.354100000000003</v>
+      </c>
+      <c r="D172">
+        <v>-121.9552</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>138</v>
+      </c>
+      <c r="B173" t="s">
+        <v>154</v>
+      </c>
+      <c r="C173">
+        <v>27.336400000000001</v>
+      </c>
+      <c r="D173">
+        <v>-82.530699999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D174">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B175" t="s">
+        <v>154</v>
+      </c>
+      <c r="C175">
+        <v>48.033000000000001</v>
+      </c>
+      <c r="D175">
+        <v>-121.8339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C176">
+        <v>38.578000000000003</v>
+      </c>
+      <c r="D176">
+        <v>-122.9888</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" t="s">
+        <v>154</v>
+      </c>
+      <c r="C177">
+        <v>33.4255</v>
+      </c>
+      <c r="D177">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>154</v>
+      </c>
+      <c r="C178">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D178">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179">
+        <v>38.272100000000002</v>
+      </c>
+      <c r="D179">
+        <v>-121.93989999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>140</v>
+      </c>
+      <c r="B180" t="s">
+        <v>154</v>
+      </c>
+      <c r="C180">
+        <v>45.774999999999999</v>
+      </c>
+      <c r="D180">
+        <v>-118.7606</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>87</v>
+      </c>
+      <c r="B181" t="s">
+        <v>154</v>
+      </c>
+      <c r="C181">
+        <v>35.4437</v>
+      </c>
+      <c r="D181">
+        <v>139.63800000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>143</v>
+      </c>
+      <c r="B182" t="s">
+        <v>154</v>
+      </c>
+      <c r="C182">
+        <v>35.803199999999997</v>
+      </c>
+      <c r="D182">
+        <v>-78.566100000000006</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>173</v>
+      </c>
+      <c r="B183" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183">
+        <v>47.608013</v>
+      </c>
+      <c r="D183">
+        <v>-122.335167</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>145</v>
+      </c>
+      <c r="B184" t="s">
+        <v>154</v>
+      </c>
+      <c r="C184">
+        <v>45.546999999999997</v>
+      </c>
+      <c r="D184">
+        <v>-123.1386</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>149</v>
+      </c>
+      <c r="B185" t="s">
+        <v>154</v>
+      </c>
+      <c r="C185">
         <v>41.122</v>
       </c>
-      <c r="D169">
+      <c r="D185">
         <v>-73.794899999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C170">
-        <v>14.058299999999999</v>
-      </c>
-      <c r="D170">
-        <v>108.27719999999999</v>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186">
+        <v>16</v>
+      </c>
+      <c r="D186">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D170">
-    <sortCondition ref="B2:B170"/>
-    <sortCondition ref="A2:A170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D186">
+    <sortCondition ref="B2:B186"/>
+    <sortCondition ref="A2:A186"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>